--- a/alerts/Alert Parameters (working).xlsx
+++ b/alerts/Alert Parameters (working).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztsmith\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztsmith\Documents\GitHub\CEVAC\alerts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>Alert</t>
   </si>
@@ -113,12 +113,6 @@
     <t>null/empty</t>
   </si>
   <si>
-    <t>IAQ</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Emergency</t>
   </si>
   <si>
@@ -129,6 +123,42 @@
   </si>
   <si>
     <t>1000 warn, 2000 alarm</t>
+  </si>
+  <si>
+    <t>Table Name</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEVAC_x_POWER_LATEST </t>
+  </si>
+  <si>
+    <t>CEVAC_x_TEMP_LATEST</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Value in table</t>
+  </si>
+  <si>
+    <t>All rooms</t>
+  </si>
+  <si>
+    <t>sum of all actualvalue</t>
+  </si>
+  <si>
+    <t>Building Lighting actualvalue</t>
+  </si>
+  <si>
+    <t>sum of 3rd floor emergency and basement emergency</t>
+  </si>
+  <si>
+    <t>CEVAC_x_IAQ_LATEST</t>
+  </si>
+  <si>
+    <t>all sensors</t>
   </si>
 </sst>
 </file>
@@ -176,12 +206,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,18 +494,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,8 +525,14 @@
       <c r="F1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -509,8 +548,11 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -526,8 +568,11 @@
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -543,8 +588,14 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -563,8 +614,14 @@
       <c r="F5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -580,8 +637,11 @@
       <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -597,8 +657,11 @@
       <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -614,8 +677,14 @@
       <c r="E8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -631,8 +700,14 @@
       <c r="E9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -648,78 +723,71 @@
       <c r="E10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
+      <c r="G13" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/alerts/Alert Parameters (working).xlsx
+++ b/alerts/Alert Parameters (working).xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="143">
   <si>
     <t>Alert</t>
   </si>
@@ -159,6 +160,300 @@
   </si>
   <si>
     <t>all sensors</t>
+  </si>
+  <si>
+    <t>alert_name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>sort_column</t>
+  </si>
+  <si>
+    <t>num_entries</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>ppm</t>
+  </si>
+  <si>
+    <t>Watt</t>
+  </si>
+  <si>
+    <t>CEVAC_WATT_IAQ_LATEST</t>
+  </si>
+  <si>
+    <t>ActualValue</t>
+  </si>
+  <si>
+    <t>UTCDateTime</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>Watt_CO2_warning</t>
+  </si>
+  <si>
+    <t>Watt_CO2_alert</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>CEVAC_WATT_POWER_LATEST</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Building Emergency</t>
+  </si>
+  <si>
+    <t>0-6 &amp; 20-23</t>
+  </si>
+  <si>
+    <t>Building Media Lights</t>
+  </si>
+  <si>
+    <t>The Media lights are on.</t>
+  </si>
+  <si>
+    <t>degF</t>
+  </si>
+  <si>
+    <t>CEVAC_WATT_TEMP_DAY</t>
+  </si>
+  <si>
+    <t>Watt_Emergency_Power_alert</t>
+  </si>
+  <si>
+    <t>Watt_Temperature_high_warning</t>
+  </si>
+  <si>
+    <t>Watt_Temperature_high_alert</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>Watt_Temperature_low_warning</t>
+  </si>
+  <si>
+    <t>Watt_Temperature_low_alert</t>
+  </si>
+  <si>
+    <t>0-8 &amp; 17-23</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>Watt_Power_night_summer_warning</t>
+  </si>
+  <si>
+    <t>Watt_Power_weekend_warning</t>
+  </si>
+  <si>
+    <t>Watt_Power_night_schoolyear_warning</t>
+  </si>
+  <si>
+    <t>CEVAC_WATT_POWER_SUMS_LATEST</t>
+  </si>
+  <si>
+    <t>1-4 &amp; 9-12</t>
+  </si>
+  <si>
+    <t>Watt_CO2_null_alert</t>
+  </si>
+  <si>
+    <t>&lt;now&gt; - 1 hr</t>
+  </si>
+  <si>
+    <t>Watt_Power_Null_alert</t>
+  </si>
+  <si>
+    <t>Watt_Temperature_Null_alert</t>
+  </si>
+  <si>
+    <t>CEVAC_WATT_TEMP_LATEST</t>
+  </si>
+  <si>
+    <t>Watt_Media_lights_summer_warning</t>
+  </si>
+  <si>
+    <t>Watt_Media_lights_schoolyear_warning</t>
+  </si>
+  <si>
+    <t>Watt_1F_Light_summer_warning</t>
+  </si>
+  <si>
+    <t>1st Floor Lighting</t>
+  </si>
+  <si>
+    <t>Watt_1F_Light_schoolyear_warning</t>
+  </si>
+  <si>
+    <t>1st Floor Lights are on.</t>
+  </si>
+  <si>
+    <t>Watt_2F_Light_summer_warning</t>
+  </si>
+  <si>
+    <t>2nd Floor Lighting</t>
+  </si>
+  <si>
+    <t>2nd Floor Lights are on.</t>
+  </si>
+  <si>
+    <t>Watt_2F_Light_schoolyear_warning</t>
+  </si>
+  <si>
+    <t>Watt_1F_Light_weekend_warning</t>
+  </si>
+  <si>
+    <t>Watt_3F_Light_summer_warning</t>
+  </si>
+  <si>
+    <t>3rd Floor Lighting</t>
+  </si>
+  <si>
+    <t>3rd Floor Lights are on.</t>
+  </si>
+  <si>
+    <t>Watt_3F_Light_schoolyear_warning</t>
+  </si>
+  <si>
+    <t>Watt_4F_Light_summer_warning</t>
+  </si>
+  <si>
+    <t>4th Floor Lighting</t>
+  </si>
+  <si>
+    <t>4th Floor Lights are on.</t>
+  </si>
+  <si>
+    <t>Watt_4F_Light_schoolyear_warning</t>
+  </si>
+  <si>
+    <t>Watt_BSMT_Light_summer_warning</t>
+  </si>
+  <si>
+    <t>Basement Lighting</t>
+  </si>
+  <si>
+    <t>Basement Lights are on.</t>
+  </si>
+  <si>
+    <t>Watt_BSMT_Light_schoolyear_warning</t>
+  </si>
+  <si>
+    <t>Watt_4F_Light_weekend_warning</t>
+  </si>
+  <si>
+    <t>Watt_3F_Light_weekend_warning</t>
+  </si>
+  <si>
+    <t>Watt_2F_Light_weekend_warning</t>
+  </si>
+  <si>
+    <t>Building power usage &gt; 300 kW</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>&lt;alias- " Temp"&gt; Cooling SP</t>
+  </si>
+  <si>
+    <t>&lt;alias- " Temp"&gt; Cooling SP+3</t>
+  </si>
+  <si>
+    <t>&lt;alias- " Temp"&gt; Heating SP</t>
+  </si>
+  <si>
+    <t>&lt;alias- " Temp"&gt; Heating SP+3</t>
+  </si>
+  <si>
+    <t>&lt;alias&gt; has not reported in more than an hour</t>
+  </si>
+  <si>
+    <t>&lt;now&gt; - 1 day</t>
+  </si>
+  <si>
+    <t>8-23</t>
+  </si>
+  <si>
+    <t>CEVAC_WATT_IAQ_LATEST_FULL</t>
+  </si>
+  <si>
+    <t>&lt;alias&gt; exceeds 1000 ppm</t>
+  </si>
+  <si>
+    <t>&lt;alias&gt; exceeds 2000 ppm</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>Building emergency power &gt; 80 kW</t>
+  </si>
+  <si>
+    <t>&lt;alias&gt; is below its Heating SP</t>
+  </si>
+  <si>
+    <t>&lt;alias&gt; is above its Cooling SP</t>
+  </si>
+  <si>
+    <t>&lt;alias&gt; is below its Heating SP by 3 degrees or more</t>
+  </si>
+  <si>
+    <t>&lt;alias&gt; is above its Cooling SP by 3 degrees or more</t>
   </si>
 </sst>
 </file>
@@ -206,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -214,6 +509,8 @@
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,4 +1090,1582 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="7"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2">
+        <v>1000</v>
+      </c>
+      <c r="P2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3">
+        <v>2000</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6">
+        <v>1.3</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7">
+        <v>1.3</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8">
+        <v>1.3</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12">
+        <v>1.35</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13">
+        <v>1.35</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14">
+        <v>1.35</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21">
+        <v>80</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22">
+        <v>300</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23">
+        <v>300</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O24">
+        <v>300</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/alerts/Alert Parameters (working).xlsx
+++ b/alerts/Alert Parameters (working).xlsx
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/alerts/Alert Parameters (working).xlsx
+++ b/alerts/Alert Parameters (working).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="First Iteration" sheetId="1" r:id="rId1"/>
@@ -526,9 +526,6 @@
     <t>&lt;alias&gt; reads &lt;ActualValue&gt; (Heating SP = &lt;Heating SP&gt;</t>
   </si>
   <si>
-    <t>The building is unoccupied but using a lot of power.</t>
-  </si>
-  <si>
     <t>The Media Lights are on.</t>
   </si>
   <si>
@@ -551,6 +548,9 @@
   </si>
   <si>
     <t>&lt;alias- " Temp"&gt; Heating SP-3</t>
+  </si>
+  <si>
+    <t>The building is unoccupied but is using a lot of power.</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
@@ -1302,7 +1302,7 @@
         <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
@@ -1358,7 +1358,7 @@
         <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G3" t="s">
         <v>61</v>
@@ -1414,7 +1414,7 @@
         <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G4" t="s">
         <v>71</v>
@@ -1470,7 +1470,7 @@
         <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G5" t="s">
         <v>71</v>
@@ -1526,7 +1526,7 @@
         <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G6" t="s">
         <v>71</v>
@@ -1582,7 +1582,7 @@
         <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G7" t="s">
         <v>71</v>
@@ -1638,7 +1638,7 @@
         <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G8" t="s">
         <v>71</v>
@@ -1694,7 +1694,7 @@
         <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G9" t="s">
         <v>71</v>
@@ -1750,7 +1750,7 @@
         <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G10" t="s">
         <v>71</v>
@@ -1806,7 +1806,7 @@
         <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G11" t="s">
         <v>71</v>
@@ -1862,7 +1862,7 @@
         <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G12" t="s">
         <v>71</v>
@@ -1918,7 +1918,7 @@
         <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G13" t="s">
         <v>71</v>
@@ -1974,7 +1974,7 @@
         <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G14" t="s">
         <v>71</v>
@@ -2030,7 +2030,7 @@
         <v>115</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G15" t="s">
         <v>71</v>
@@ -2086,7 +2086,7 @@
         <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
         <v>71</v>
@@ -2142,7 +2142,7 @@
         <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
         <v>71</v>
@@ -2198,7 +2198,7 @@
         <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
         <v>71</v>
@@ -2254,7 +2254,7 @@
         <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
         <v>71</v>
@@ -2310,7 +2310,7 @@
         <v>119</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
         <v>71</v>
@@ -2366,7 +2366,7 @@
         <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G21" t="s">
         <v>71</v>
@@ -2422,7 +2422,7 @@
         <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
         <v>91</v>
@@ -2478,7 +2478,7 @@
         <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G23" t="s">
         <v>91</v>
@@ -2534,7 +2534,7 @@
         <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G24" t="s">
         <v>91</v>
@@ -2590,7 +2590,7 @@
         <v>138</v>
       </c>
       <c r="F25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G25" t="s">
         <v>78</v>
@@ -2646,7 +2646,7 @@
         <v>140</v>
       </c>
       <c r="F26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G26" t="s">
         <v>78</v>
@@ -2702,7 +2702,7 @@
         <v>137</v>
       </c>
       <c r="F27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G27" t="s">
         <v>78</v>
@@ -2758,7 +2758,7 @@
         <v>139</v>
       </c>
       <c r="F28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G28" t="s">
         <v>78</v>
@@ -2791,7 +2791,7 @@
         <v>82</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R28" s="7" t="s">
         <v>66</v>
@@ -2814,7 +2814,7 @@
         <v>129</v>
       </c>
       <c r="F29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G29" t="s">
         <v>132</v>
@@ -2870,7 +2870,7 @@
         <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G30" t="s">
         <v>71</v>
@@ -2926,7 +2926,7 @@
         <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -2975,8 +2975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3062,7 +3062,7 @@
         <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
@@ -3109,7 +3109,7 @@
         <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G3" t="s">
         <v>61</v>
@@ -3156,7 +3156,7 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G4" t="s">
         <v>71</v>
@@ -3203,7 +3203,7 @@
         <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G5" t="s">
         <v>71</v>
@@ -3250,7 +3250,7 @@
         <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G6" t="s">
         <v>71</v>
@@ -3297,7 +3297,7 @@
         <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G7" t="s">
         <v>71</v>
@@ -3341,10 +3341,10 @@
         <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G8" t="s">
         <v>71</v>
@@ -3388,10 +3388,10 @@
         <v>157</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G9" t="s">
         <v>78</v>
@@ -3435,10 +3435,10 @@
         <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G10" t="s">
         <v>97</v>
@@ -3485,7 +3485,7 @@
         <v>165</v>
       </c>
       <c r="F11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G11" t="s">
         <v>78</v>
@@ -3529,10 +3529,10 @@
         <v>157</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G12" t="s">
         <v>97</v>
@@ -3564,7 +3564,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
@@ -3576,10 +3576,10 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G13" t="s">
         <v>71</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
@@ -3623,10 +3623,10 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G14" t="s">
         <v>91</v>

--- a/alerts/Alert Parameters (working).xlsx
+++ b/alerts/Alert Parameters (working).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="First Iteration" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="177">
   <si>
     <t>Alert</t>
   </si>
@@ -466,9 +466,6 @@
     <t>alert_message</t>
   </si>
   <si>
-    <t>bldg</t>
-  </si>
-  <si>
     <t>occupancy_status</t>
   </si>
   <si>
@@ -551,6 +548,15 @@
   </si>
   <si>
     <t>The building is unoccupied but is using a lot of power.</t>
+  </si>
+  <si>
+    <t>bldg_std</t>
+  </si>
+  <si>
+    <t>bldg_disp</t>
+  </si>
+  <si>
+    <t>Watt</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
@@ -1302,7 +1308,7 @@
         <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
@@ -1358,7 +1364,7 @@
         <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G3" t="s">
         <v>61</v>
@@ -1414,7 +1420,7 @@
         <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G4" t="s">
         <v>71</v>
@@ -1470,7 +1476,7 @@
         <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G5" t="s">
         <v>71</v>
@@ -1526,7 +1532,7 @@
         <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G6" t="s">
         <v>71</v>
@@ -1582,7 +1588,7 @@
         <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G7" t="s">
         <v>71</v>
@@ -1638,7 +1644,7 @@
         <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G8" t="s">
         <v>71</v>
@@ -1694,7 +1700,7 @@
         <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G9" t="s">
         <v>71</v>
@@ -1750,7 +1756,7 @@
         <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G10" t="s">
         <v>71</v>
@@ -1806,7 +1812,7 @@
         <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G11" t="s">
         <v>71</v>
@@ -1862,7 +1868,7 @@
         <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G12" t="s">
         <v>71</v>
@@ -1918,7 +1924,7 @@
         <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G13" t="s">
         <v>71</v>
@@ -1974,7 +1980,7 @@
         <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G14" t="s">
         <v>71</v>
@@ -2030,7 +2036,7 @@
         <v>115</v>
       </c>
       <c r="F15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
         <v>71</v>
@@ -2086,7 +2092,7 @@
         <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
         <v>71</v>
@@ -2142,7 +2148,7 @@
         <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
         <v>71</v>
@@ -2198,7 +2204,7 @@
         <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
         <v>71</v>
@@ -2254,7 +2260,7 @@
         <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
         <v>71</v>
@@ -2310,7 +2316,7 @@
         <v>119</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G20" t="s">
         <v>71</v>
@@ -2366,7 +2372,7 @@
         <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G21" t="s">
         <v>71</v>
@@ -2422,7 +2428,7 @@
         <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G22" t="s">
         <v>91</v>
@@ -2478,7 +2484,7 @@
         <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G23" t="s">
         <v>91</v>
@@ -2534,7 +2540,7 @@
         <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G24" t="s">
         <v>91</v>
@@ -2590,7 +2596,7 @@
         <v>138</v>
       </c>
       <c r="F25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G25" t="s">
         <v>78</v>
@@ -2646,7 +2652,7 @@
         <v>140</v>
       </c>
       <c r="F26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G26" t="s">
         <v>78</v>
@@ -2702,7 +2708,7 @@
         <v>137</v>
       </c>
       <c r="F27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G27" t="s">
         <v>78</v>
@@ -2758,7 +2764,7 @@
         <v>139</v>
       </c>
       <c r="F28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G28" t="s">
         <v>78</v>
@@ -2791,7 +2797,7 @@
         <v>82</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R28" s="7" t="s">
         <v>66</v>
@@ -2814,7 +2820,7 @@
         <v>129</v>
       </c>
       <c r="F29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G29" t="s">
         <v>132</v>
@@ -2870,7 +2876,7 @@
         <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G30" t="s">
         <v>71</v>
@@ -2926,7 +2932,7 @@
         <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -2973,32 +2979,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -3015,37 +3022,40 @@
         <v>145</v>
       </c>
       <c r="F1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" t="s">
         <v>146</v>
       </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" t="s">
-        <v>141</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" t="s">
         <v>147</v>
       </c>
-      <c r="M1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -3059,22 +3069,22 @@
         <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" t="s">
         <v>61</v>
       </c>
-      <c r="H2" t="s">
-        <v>62</v>
-      </c>
       <c r="I2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="J2" t="s">
+        <v>63</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -3082,17 +3092,20 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>64</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1000</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -3106,42 +3119,45 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" t="s">
         <v>61</v>
       </c>
-      <c r="H3" t="s">
-        <v>62</v>
-      </c>
       <c r="I3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="J3" t="s">
+        <v>63</v>
       </c>
       <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
-        <v>72</v>
-      </c>
       <c r="M3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" t="s">
         <v>64</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>2000</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -3156,39 +3172,42 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" t="s">
         <v>71</v>
       </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
       <c r="I4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1.3</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
@@ -3203,39 +3222,42 @@
         <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" t="s">
         <v>71</v>
       </c>
-      <c r="H5" t="s">
-        <v>62</v>
-      </c>
       <c r="I5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>64</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1.1499999999999999</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -3250,39 +3272,42 @@
         <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" t="s">
         <v>71</v>
       </c>
-      <c r="H6" t="s">
-        <v>62</v>
-      </c>
       <c r="I6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="J6" t="s">
+        <v>63</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>64</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1.35</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
@@ -3297,39 +3322,42 @@
         <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" t="s">
         <v>71</v>
       </c>
-      <c r="H7" t="s">
-        <v>62</v>
-      </c>
       <c r="I7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="J7" t="s">
+        <v>63</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>64</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
@@ -3341,42 +3369,45 @@
         <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" t="s">
         <v>71</v>
       </c>
-      <c r="H8" t="s">
-        <v>62</v>
-      </c>
       <c r="I8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="J8" t="s">
+        <v>63</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>64</v>
       </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -3385,45 +3416,48 @@
         <v>72</v>
       </c>
       <c r="D9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" t="s">
+        <v>159</v>
+      </c>
+      <c r="P9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>157</v>
-      </c>
-      <c r="E9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>72</v>
-      </c>
-      <c r="M9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N9" t="s">
-        <v>160</v>
-      </c>
-      <c r="O9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>158</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -3432,45 +3466,48 @@
         <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G10" t="s">
+        <v>176</v>
+      </c>
+      <c r="H10" t="s">
         <v>97</v>
       </c>
-      <c r="H10" t="s">
-        <v>62</v>
-      </c>
       <c r="I10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="J10" t="s">
+        <v>63</v>
       </c>
       <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0</v>
       </c>
-      <c r="L10" t="s">
-        <v>72</v>
-      </c>
       <c r="M10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" t="s">
         <v>64</v>
       </c>
-      <c r="N10" t="s">
-        <v>161</v>
-      </c>
       <c r="O10" t="s">
+        <v>160</v>
+      </c>
+      <c r="P10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -3479,45 +3516,48 @@
         <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" t="s">
         <v>78</v>
       </c>
-      <c r="H11" t="s">
-        <v>62</v>
-      </c>
       <c r="I11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11">
+        <v>62</v>
+      </c>
+      <c r="J11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0</v>
       </c>
-      <c r="L11" t="s">
-        <v>72</v>
-      </c>
       <c r="M11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" t="s">
         <v>82</v>
       </c>
-      <c r="N11" t="s">
-        <v>162</v>
-      </c>
       <c r="O11" t="s">
+        <v>161</v>
+      </c>
+      <c r="P11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -3526,45 +3566,48 @@
         <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G12" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12" t="s">
         <v>97</v>
       </c>
-      <c r="H12" t="s">
-        <v>62</v>
-      </c>
       <c r="I12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="J12" t="s">
+        <v>63</v>
       </c>
       <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>0</v>
       </c>
-      <c r="L12" t="s">
-        <v>72</v>
-      </c>
       <c r="M12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" t="s">
         <v>82</v>
       </c>
-      <c r="N12" t="s">
-        <v>163</v>
-      </c>
       <c r="O12" t="s">
+        <v>162</v>
+      </c>
+      <c r="P12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
@@ -3576,42 +3619,45 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G13" t="s">
+        <v>176</v>
+      </c>
+      <c r="H13" t="s">
         <v>71</v>
       </c>
-      <c r="H13" t="s">
-        <v>62</v>
-      </c>
       <c r="I13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="J13" t="s">
+        <v>63</v>
       </c>
       <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>0</v>
       </c>
-      <c r="L13" t="s">
-        <v>72</v>
-      </c>
       <c r="M13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" t="s">
         <v>64</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>80</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
@@ -3623,36 +3669,39 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G14" t="s">
+        <v>176</v>
+      </c>
+      <c r="H14" t="s">
         <v>91</v>
       </c>
-      <c r="H14" t="s">
-        <v>62</v>
-      </c>
       <c r="I14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="J14" t="s">
+        <v>63</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
         <v>0</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>64</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>300</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>66</v>
       </c>
     </row>

--- a/alerts/Alert Parameters (working).xlsx
+++ b/alerts/Alert Parameters (working).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="183">
   <si>
     <t>Alert</t>
   </si>
@@ -557,6 +557,24 @@
   </si>
   <si>
     <t>Watt</t>
+  </si>
+  <si>
+    <t>Dead_sensor_alert</t>
+  </si>
+  <si>
+    <t>&lt;alias&gt; has not reported recently.</t>
+  </si>
+  <si>
+    <t>*_LATEST</t>
+  </si>
+  <si>
+    <t>&lt;now&gt; - UTCDateTime</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>subtraction and alert value are in hours</t>
   </si>
 </sst>
 </file>
@@ -2979,10 +2997,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3005,7 +3023,7 @@
     <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -3054,8 +3072,11 @@
       <c r="P1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -3105,7 +3126,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -3155,7 +3176,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -3205,7 +3226,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>149</v>
       </c>
@@ -3255,7 +3276,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -3305,7 +3326,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -3355,7 +3376,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -3405,7 +3426,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -3455,7 +3476,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -3505,7 +3526,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>158</v>
       </c>
@@ -3555,7 +3576,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>163</v>
       </c>
@@ -3605,7 +3626,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -3655,7 +3676,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>170</v>
       </c>
@@ -3703,6 +3724,59 @@
       </c>
       <c r="P14" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>179</v>
+      </c>
+      <c r="I15" t="s">
+        <v>180</v>
+      </c>
+      <c r="J15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/alerts/Alert Parameters (working).xlsx
+++ b/alerts/Alert Parameters (working).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="183">
   <si>
     <t>Alert</t>
   </si>
@@ -559,22 +559,22 @@
     <t>Watt</t>
   </si>
   <si>
-    <t>Dead_sensor_alert</t>
-  </si>
-  <si>
     <t>&lt;alias&gt; has not reported recently.</t>
   </si>
   <si>
-    <t>*_LATEST</t>
-  </si>
-  <si>
-    <t>&lt;now&gt; - UTCDateTime</t>
-  </si>
-  <si>
     <t>comments</t>
   </si>
   <si>
     <t>subtraction and alert value are in hours</t>
+  </si>
+  <si>
+    <t>Dead_Temp_sensor_alert</t>
+  </si>
+  <si>
+    <t>Dead_Power_sensor_alert</t>
+  </si>
+  <si>
+    <t>Dead_IAQ_sensor_alert</t>
   </si>
 </sst>
 </file>
@@ -2997,10 +2997,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3073,7 +3073,7 @@
         <v>147</v>
       </c>
       <c r="Q1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -3728,31 +3728,31 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" t="s">
         <v>177</v>
       </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" t="s">
-        <v>178</v>
-      </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c r="H15" t="s">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="I15" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
         <v>63</v>
@@ -3767,16 +3767,116 @@
         <v>72</v>
       </c>
       <c r="N15" t="s">
-        <v>64</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="O15" t="s">
+        <v>94</v>
       </c>
       <c r="P15" t="s">
         <v>66</v>
       </c>
       <c r="Q15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>182</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/alerts/Alert Parameters (working).xlsx
+++ b/alerts/Alert Parameters (working).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="182">
   <si>
     <t>Alert</t>
   </si>
@@ -520,18 +520,9 @@
     <t>Temp_Low_alert</t>
   </si>
   <si>
-    <t>&lt;alias&gt; reads &lt;ActualValue&gt; (Heating SP = &lt;Heating SP&gt;</t>
-  </si>
-  <si>
     <t>The Media Lights are on.</t>
   </si>
   <si>
-    <t>&lt;alias&gt; reads &lt;ActualValue&gt; (Cooling SP = &lt;Cooling SP&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;alias&gt; reads &lt;ActualValue&gt; (Heating SP = &lt;Heating SP&gt;.</t>
-  </si>
-  <si>
     <t>Building emergency power exceeds 80 kW.</t>
   </si>
   <si>
@@ -575,6 +566,12 @@
   </si>
   <si>
     <t>Dead_IAQ_sensor_alert</t>
+  </si>
+  <si>
+    <t>&lt;alias&gt; reads &lt;ActualValue&gt; [deg-F] (Heating SP = &lt;Heating SP&gt; [deg-F])</t>
+  </si>
+  <si>
+    <t>&lt;alias&gt; reads &lt;ActualValue&gt; [deg-F] (Cooling SP = &lt;Cooling SP&gt; [deg-F])</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1323,7 @@
         <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
@@ -1382,7 +1379,7 @@
         <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
         <v>61</v>
@@ -1438,7 +1435,7 @@
         <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G4" t="s">
         <v>71</v>
@@ -1494,7 +1491,7 @@
         <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G5" t="s">
         <v>71</v>
@@ -1550,7 +1547,7 @@
         <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G6" t="s">
         <v>71</v>
@@ -1606,7 +1603,7 @@
         <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G7" t="s">
         <v>71</v>
@@ -1662,7 +1659,7 @@
         <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G8" t="s">
         <v>71</v>
@@ -1718,7 +1715,7 @@
         <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G9" t="s">
         <v>71</v>
@@ -1774,7 +1771,7 @@
         <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G10" t="s">
         <v>71</v>
@@ -1830,7 +1827,7 @@
         <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G11" t="s">
         <v>71</v>
@@ -1886,7 +1883,7 @@
         <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G12" t="s">
         <v>71</v>
@@ -1942,7 +1939,7 @@
         <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G13" t="s">
         <v>71</v>
@@ -1998,7 +1995,7 @@
         <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G14" t="s">
         <v>71</v>
@@ -2054,7 +2051,7 @@
         <v>115</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
         <v>71</v>
@@ -2110,7 +2107,7 @@
         <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
         <v>71</v>
@@ -2166,7 +2163,7 @@
         <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
         <v>71</v>
@@ -2222,7 +2219,7 @@
         <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
         <v>71</v>
@@ -2278,7 +2275,7 @@
         <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
         <v>71</v>
@@ -2334,7 +2331,7 @@
         <v>119</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
         <v>71</v>
@@ -2390,7 +2387,7 @@
         <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G21" t="s">
         <v>71</v>
@@ -2446,7 +2443,7 @@
         <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G22" t="s">
         <v>91</v>
@@ -2502,7 +2499,7 @@
         <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G23" t="s">
         <v>91</v>
@@ -2558,7 +2555,7 @@
         <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G24" t="s">
         <v>91</v>
@@ -2614,7 +2611,7 @@
         <v>138</v>
       </c>
       <c r="F25" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G25" t="s">
         <v>78</v>
@@ -2670,7 +2667,7 @@
         <v>140</v>
       </c>
       <c r="F26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G26" t="s">
         <v>78</v>
@@ -2726,7 +2723,7 @@
         <v>137</v>
       </c>
       <c r="F27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G27" t="s">
         <v>78</v>
@@ -2782,7 +2779,7 @@
         <v>139</v>
       </c>
       <c r="F28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G28" t="s">
         <v>78</v>
@@ -2815,7 +2812,7 @@
         <v>82</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="R28" s="7" t="s">
         <v>66</v>
@@ -2838,7 +2835,7 @@
         <v>129</v>
       </c>
       <c r="F29" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G29" t="s">
         <v>132</v>
@@ -2894,7 +2891,7 @@
         <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G30" t="s">
         <v>71</v>
@@ -2950,7 +2947,7 @@
         <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -3000,7 +2997,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3009,7 +3006,7 @@
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.140625" customWidth="1"/>
     <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
@@ -3040,10 +3037,10 @@
         <v>145</v>
       </c>
       <c r="F1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H1" t="s">
         <v>49</v>
@@ -3073,7 +3070,7 @@
         <v>147</v>
       </c>
       <c r="Q1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -3093,10 +3090,10 @@
         <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H2" t="s">
         <v>61</v>
@@ -3143,10 +3140,10 @@
         <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H3" t="s">
         <v>61</v>
@@ -3193,10 +3190,10 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H4" t="s">
         <v>71</v>
@@ -3243,10 +3240,10 @@
         <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H5" t="s">
         <v>71</v>
@@ -3293,10 +3290,10 @@
         <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H6" t="s">
         <v>71</v>
@@ -3343,10 +3340,10 @@
         <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H7" t="s">
         <v>71</v>
@@ -3390,13 +3387,13 @@
         <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H8" t="s">
         <v>71</v>
@@ -3440,13 +3437,13 @@
         <v>156</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="F9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H9" t="s">
         <v>78</v>
@@ -3490,13 +3487,13 @@
         <v>156</v>
       </c>
       <c r="E10" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="F10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H10" t="s">
         <v>97</v>
@@ -3540,13 +3537,13 @@
         <v>156</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="F11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H11" t="s">
         <v>78</v>
@@ -3590,13 +3587,13 @@
         <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="F12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H12" t="s">
         <v>97</v>
@@ -3628,7 +3625,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
@@ -3640,13 +3637,13 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H13" t="s">
         <v>71</v>
@@ -3678,7 +3675,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
@@ -3690,13 +3687,13 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" t="s">
         <v>173</v>
-      </c>
-      <c r="F14" t="s">
-        <v>171</v>
-      </c>
-      <c r="G14" t="s">
-        <v>176</v>
       </c>
       <c r="H14" t="s">
         <v>91</v>
@@ -3728,7 +3725,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -3740,13 +3737,13 @@
         <v>156</v>
       </c>
       <c r="E15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H15" t="s">
         <v>97</v>
@@ -3776,12 +3773,12 @@
         <v>66</v>
       </c>
       <c r="Q15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
         <v>69</v>
@@ -3793,13 +3790,13 @@
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H16" t="s">
         <v>71</v>
@@ -3831,7 +3828,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
@@ -3843,13 +3840,13 @@
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H17" t="s">
         <v>61</v>

--- a/alerts/Alert Parameters (working).xlsx
+++ b/alerts/Alert Parameters (working).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="181">
   <si>
     <t>Alert</t>
   </si>
@@ -553,12 +553,6 @@
     <t>&lt;alias&gt; has not reported recently.</t>
   </si>
   <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>subtraction and alert value are in hours</t>
-  </si>
-  <si>
     <t>Dead_Temp_sensor_alert</t>
   </si>
   <si>
@@ -572,6 +566,9 @@
   </si>
   <si>
     <t>&lt;alias&gt; reads &lt;ActualValue&gt; [deg-F] (Cooling SP = &lt;Cooling SP&gt; [deg-F])</t>
+  </si>
+  <si>
+    <t>message_ID</t>
   </si>
 </sst>
 </file>
@@ -2996,8 +2993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3070,7 +3067,7 @@
         <v>147</v>
       </c>
       <c r="Q1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -3122,6 +3119,9 @@
       <c r="P2" t="s">
         <v>65</v>
       </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3172,6 +3172,9 @@
       <c r="P3" t="s">
         <v>66</v>
       </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3222,6 +3225,9 @@
       <c r="P4" t="s">
         <v>66</v>
       </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3272,6 +3278,9 @@
       <c r="P5" t="s">
         <v>66</v>
       </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3322,6 +3331,9 @@
       <c r="P6" t="s">
         <v>66</v>
       </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3372,6 +3384,9 @@
       <c r="P7" t="s">
         <v>66</v>
       </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3422,6 +3437,9 @@
       <c r="P8" t="s">
         <v>66</v>
       </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3437,7 +3455,7 @@
         <v>156</v>
       </c>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F9" t="s">
         <v>168</v>
@@ -3471,6 +3489,9 @@
       </c>
       <c r="P9" t="s">
         <v>65</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -3487,7 +3508,7 @@
         <v>156</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F10" t="s">
         <v>168</v>
@@ -3521,6 +3542,9 @@
       </c>
       <c r="P10" t="s">
         <v>66</v>
+      </c>
+      <c r="Q10">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -3537,7 +3561,7 @@
         <v>156</v>
       </c>
       <c r="E11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F11" t="s">
         <v>168</v>
@@ -3571,6 +3595,9 @@
       </c>
       <c r="P11" t="s">
         <v>65</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -3587,7 +3614,7 @@
         <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F12" t="s">
         <v>168</v>
@@ -3621,6 +3648,9 @@
       </c>
       <c r="P12" t="s">
         <v>66</v>
+      </c>
+      <c r="Q12">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -3672,6 +3702,9 @@
       <c r="P13" t="s">
         <v>66</v>
       </c>
+      <c r="Q13">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3722,10 +3755,13 @@
       <c r="P14" t="s">
         <v>66</v>
       </c>
+      <c r="Q14">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -3772,13 +3808,13 @@
       <c r="P15" t="s">
         <v>66</v>
       </c>
-      <c r="Q15" t="s">
-        <v>176</v>
+      <c r="Q15">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s">
         <v>69</v>
@@ -3825,10 +3861,13 @@
       <c r="P16" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
@@ -3874,6 +3913,9 @@
       </c>
       <c r="P17" t="s">
         <v>66</v>
+      </c>
+      <c r="Q17">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/alerts/Alert Parameters (working).xlsx
+++ b/alerts/Alert Parameters (working).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="226">
   <si>
     <t>Alert</t>
   </si>
@@ -472,39 +472,15 @@
     <t>alert_type</t>
   </si>
   <si>
-    <t>1st_Floor_Lights</t>
-  </si>
-  <si>
-    <t>2nd_Floor_Lights</t>
-  </si>
-  <si>
-    <t>3rd_Floor_Lights</t>
-  </si>
-  <si>
-    <t>4th_Floor_Lights</t>
-  </si>
-  <si>
-    <t>Media_Lights</t>
-  </si>
-  <si>
     <t>&lt;alias&gt; exceeds 1000 ppm.</t>
   </si>
   <si>
     <t>&lt;alias&gt; exceeds 2000 ppm.</t>
   </si>
   <si>
-    <t>Temp_High_warning</t>
-  </si>
-  <si>
     <t>deg-F</t>
   </si>
   <si>
-    <t>Temp_High_alert</t>
-  </si>
-  <si>
-    <t>Temp_Low_warning</t>
-  </si>
-  <si>
     <t>&lt;Cooling SP ActualValue&gt;</t>
   </si>
   <si>
@@ -517,21 +493,12 @@
     <t>&lt;Heating SP ActualValue&gt; -3</t>
   </si>
   <si>
-    <t>Temp_Low_alert</t>
-  </si>
-  <si>
     <t>The Media Lights are on.</t>
   </si>
   <si>
     <t>Building emergency power exceeds 80 kW.</t>
   </si>
   <si>
-    <t>Building_Emergency_Power_alert</t>
-  </si>
-  <si>
-    <t>Building_Power_Unoccupied_alert</t>
-  </si>
-  <si>
     <t>WATT</t>
   </si>
   <si>
@@ -553,15 +520,6 @@
     <t>&lt;alias&gt; has not reported recently.</t>
   </si>
   <si>
-    <t>Dead_Temp_sensor_alert</t>
-  </si>
-  <si>
-    <t>Dead_Power_sensor_alert</t>
-  </si>
-  <si>
-    <t>Dead_IAQ_sensor_alert</t>
-  </si>
-  <si>
     <t>&lt;alias&gt; reads &lt;ActualValue&gt; [deg-F] (Heating SP = &lt;Heating SP&gt; [deg-F])</t>
   </si>
   <si>
@@ -569,6 +527,183 @@
   </si>
   <si>
     <t>message_ID</t>
+  </si>
+  <si>
+    <t>1st_Floor_Lights_Watt</t>
+  </si>
+  <si>
+    <t>CO2_warning_Watt</t>
+  </si>
+  <si>
+    <t>CO2_alert_Watt</t>
+  </si>
+  <si>
+    <t>2nd_Floor_Lights_Watt</t>
+  </si>
+  <si>
+    <t>3rd_Floor_Lights_Watt</t>
+  </si>
+  <si>
+    <t>4th_Floor_Lights_Watt</t>
+  </si>
+  <si>
+    <t>Media_Lights_Watt</t>
+  </si>
+  <si>
+    <t>Temp_High_warning_Watt</t>
+  </si>
+  <si>
+    <t>Temp_High_alert_Watt</t>
+  </si>
+  <si>
+    <t>Temp_Low_warning_Watt</t>
+  </si>
+  <si>
+    <t>Temp_Low_alert_Watt</t>
+  </si>
+  <si>
+    <t>Building_Emergency_Power_alert_Watt</t>
+  </si>
+  <si>
+    <t>Building_Power_Unoccupied_alert_Watt</t>
+  </si>
+  <si>
+    <t>Dead_Temp_sensor_alert_Watt</t>
+  </si>
+  <si>
+    <t>Dead_Power_sensor_alert_Watt</t>
+  </si>
+  <si>
+    <t>Dead_IAQ_sensor_alert_Watt</t>
+  </si>
+  <si>
+    <t>Dead_Temp_sensor_alert_ASC</t>
+  </si>
+  <si>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>CEVAC_ASC_TEMP_LATEST</t>
+  </si>
+  <si>
+    <t>Dead_Power_sensor_alert_ASC</t>
+  </si>
+  <si>
+    <t>CEVAC_ASC_POWER_LATEST</t>
+  </si>
+  <si>
+    <t>Dead_IAQ_sensor_alert_ASC</t>
+  </si>
+  <si>
+    <t>CEVAC_ASC_IAQ_LATEST</t>
+  </si>
+  <si>
+    <t>Dead_Temp_sensor_alert_Cooper</t>
+  </si>
+  <si>
+    <t>Dead_Power_sensor_alert_Cooper</t>
+  </si>
+  <si>
+    <t>Dead_IAQ_sensor_alert_Cooper</t>
+  </si>
+  <si>
+    <t>COOP</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>CEVAC_COOPER_TEMP_LATEST</t>
+  </si>
+  <si>
+    <t>CEVAC_COOPER_POWER_LATEST</t>
+  </si>
+  <si>
+    <t>CEVAC_COOPER_IAQ_LATEST</t>
+  </si>
+  <si>
+    <t>Dead_Temp_sensor_alert_Lee3</t>
+  </si>
+  <si>
+    <t>Dead_Power_sensor_alert_Lee3</t>
+  </si>
+  <si>
+    <t>Dead_IAQ_sensor_alert_Lee3</t>
+  </si>
+  <si>
+    <t>LEE3</t>
+  </si>
+  <si>
+    <t>Lee III</t>
+  </si>
+  <si>
+    <t>CEVAC_LEE3_TEMP_LATEST</t>
+  </si>
+  <si>
+    <t>CEVAC_LEE3_POWER_LATEST</t>
+  </si>
+  <si>
+    <t>CEVAC_LEE3_IAQ_LATEST</t>
+  </si>
+  <si>
+    <t>Temp_High_warning_ASC</t>
+  </si>
+  <si>
+    <t>Temp_High_alert_ASC</t>
+  </si>
+  <si>
+    <t>Temp_Low_warning_ASC</t>
+  </si>
+  <si>
+    <t>Temp_Low_alert_ASC</t>
+  </si>
+  <si>
+    <t>CEVAC_ASC_TEMP_DAY</t>
+  </si>
+  <si>
+    <t>Temp_High_warning_Lee3</t>
+  </si>
+  <si>
+    <t>Temp_High_alert_Lee3</t>
+  </si>
+  <si>
+    <t>Temp_Low_warning_Lee3</t>
+  </si>
+  <si>
+    <t>Temp_Low_alert_Lee3</t>
+  </si>
+  <si>
+    <t>CEVAC_LEE3_TEMP_DAY</t>
+  </si>
+  <si>
+    <t>Temp_High_warning_Cooper</t>
+  </si>
+  <si>
+    <t>Temp_High_alert_Cooper</t>
+  </si>
+  <si>
+    <t>Temp_Low_warning_Cooper</t>
+  </si>
+  <si>
+    <t>Temp_Low_alert_Cooper</t>
+  </si>
+  <si>
+    <t>CEVAC_COOPER_TEMP_DAY</t>
+  </si>
+  <si>
+    <t>CO2_warning_ASC</t>
+  </si>
+  <si>
+    <t>CO2_alert_ASC</t>
+  </si>
+  <si>
+    <t>IAQ</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>metric</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1455,7 @@
         <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
@@ -1376,7 +1511,7 @@
         <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G3" t="s">
         <v>61</v>
@@ -1432,7 +1567,7 @@
         <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G4" t="s">
         <v>71</v>
@@ -1488,7 +1623,7 @@
         <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G5" t="s">
         <v>71</v>
@@ -1544,7 +1679,7 @@
         <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G6" t="s">
         <v>71</v>
@@ -1600,7 +1735,7 @@
         <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G7" t="s">
         <v>71</v>
@@ -1656,7 +1791,7 @@
         <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G8" t="s">
         <v>71</v>
@@ -1712,7 +1847,7 @@
         <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G9" t="s">
         <v>71</v>
@@ -1768,7 +1903,7 @@
         <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G10" t="s">
         <v>71</v>
@@ -1824,7 +1959,7 @@
         <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G11" t="s">
         <v>71</v>
@@ -1880,7 +2015,7 @@
         <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G12" t="s">
         <v>71</v>
@@ -1936,7 +2071,7 @@
         <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G13" t="s">
         <v>71</v>
@@ -1992,7 +2127,7 @@
         <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G14" t="s">
         <v>71</v>
@@ -2048,7 +2183,7 @@
         <v>115</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
         <v>71</v>
@@ -2104,7 +2239,7 @@
         <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G16" t="s">
         <v>71</v>
@@ -2160,7 +2295,7 @@
         <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G17" t="s">
         <v>71</v>
@@ -2216,7 +2351,7 @@
         <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
         <v>71</v>
@@ -2272,7 +2407,7 @@
         <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G19" t="s">
         <v>71</v>
@@ -2328,7 +2463,7 @@
         <v>119</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G20" t="s">
         <v>71</v>
@@ -2384,7 +2519,7 @@
         <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G21" t="s">
         <v>71</v>
@@ -2440,7 +2575,7 @@
         <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G22" t="s">
         <v>91</v>
@@ -2496,7 +2631,7 @@
         <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G23" t="s">
         <v>91</v>
@@ -2552,7 +2687,7 @@
         <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G24" t="s">
         <v>91</v>
@@ -2608,7 +2743,7 @@
         <v>138</v>
       </c>
       <c r="F25" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G25" t="s">
         <v>78</v>
@@ -2664,7 +2799,7 @@
         <v>140</v>
       </c>
       <c r="F26" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G26" t="s">
         <v>78</v>
@@ -2720,7 +2855,7 @@
         <v>137</v>
       </c>
       <c r="F27" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G27" t="s">
         <v>78</v>
@@ -2776,7 +2911,7 @@
         <v>139</v>
       </c>
       <c r="F28" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G28" t="s">
         <v>78</v>
@@ -2809,7 +2944,7 @@
         <v>82</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="R28" s="7" t="s">
         <v>66</v>
@@ -2832,7 +2967,7 @@
         <v>129</v>
       </c>
       <c r="F29" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G29" t="s">
         <v>132</v>
@@ -2888,7 +3023,7 @@
         <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G30" t="s">
         <v>71</v>
@@ -2944,7 +3079,7 @@
         <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -2991,10 +3126,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3022,7 +3157,7 @@
         <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="C1" t="s">
         <v>125</v>
@@ -3034,10 +3169,10 @@
         <v>145</v>
       </c>
       <c r="F1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="G1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H1" t="s">
         <v>49</v>
@@ -3067,15 +3202,15 @@
         <v>147</v>
       </c>
       <c r="Q1" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -3084,13 +3219,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H2" t="s">
         <v>61</v>
@@ -3125,10 +3260,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
@@ -3137,13 +3272,13 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H3" t="s">
         <v>61</v>
@@ -3178,7 +3313,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -3193,10 +3328,10 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G4" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H4" t="s">
         <v>71</v>
@@ -3231,7 +3366,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
@@ -3246,10 +3381,10 @@
         <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G5" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H5" t="s">
         <v>71</v>
@@ -3284,7 +3419,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -3299,10 +3434,10 @@
         <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G6" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H6" t="s">
         <v>71</v>
@@ -3337,7 +3472,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
@@ -3352,10 +3487,10 @@
         <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H7" t="s">
         <v>71</v>
@@ -3390,7 +3525,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
@@ -3402,13 +3537,13 @@
         <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G8" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H8" t="s">
         <v>71</v>
@@ -3443,25 +3578,25 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="C9" t="s">
         <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="F9" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G9" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H9" t="s">
         <v>78</v>
@@ -3485,7 +3620,7 @@
         <v>64</v>
       </c>
       <c r="O9" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -3496,25 +3631,25 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" t="s">
         <v>157</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F10" t="s">
-        <v>168</v>
-      </c>
       <c r="G10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H10" t="s">
         <v>97</v>
@@ -3538,7 +3673,7 @@
         <v>64</v>
       </c>
       <c r="O10" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="P10" t="s">
         <v>66</v>
@@ -3549,25 +3684,25 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="C11" t="s">
         <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E11" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F11" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G11" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H11" t="s">
         <v>78</v>
@@ -3591,7 +3726,7 @@
         <v>82</v>
       </c>
       <c r="O11" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="P11" t="s">
         <v>65</v>
@@ -3602,25 +3737,25 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
         <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F12" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G12" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H12" t="s">
         <v>97</v>
@@ -3644,7 +3779,7 @@
         <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="P12" t="s">
         <v>66</v>
@@ -3655,7 +3790,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
@@ -3667,13 +3802,13 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F13" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G13" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H13" t="s">
         <v>71</v>
@@ -3708,7 +3843,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
@@ -3720,13 +3855,13 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G14" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H14" t="s">
         <v>91</v>
@@ -3761,25 +3896,25 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="C15" t="s">
         <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H15" t="s">
         <v>97</v>
@@ -3814,7 +3949,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s">
         <v>69</v>
@@ -3826,13 +3961,13 @@
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G16" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H16" t="s">
         <v>71</v>
@@ -3867,10 +4002,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="C17" t="s">
         <v>72</v>
@@ -3879,13 +4014,13 @@
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G17" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H17" t="s">
         <v>61</v>
@@ -3916,13 +4051,1233 @@
       </c>
       <c r="Q17">
         <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" t="s">
+        <v>187</v>
+      </c>
+      <c r="I19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>72</v>
+      </c>
+      <c r="N20" t="s">
+        <v>82</v>
+      </c>
+      <c r="O20" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" t="s">
+        <v>194</v>
+      </c>
+      <c r="H21" t="s">
+        <v>195</v>
+      </c>
+      <c r="I21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" t="s">
+        <v>82</v>
+      </c>
+      <c r="O21" t="s">
+        <v>94</v>
+      </c>
+      <c r="P21" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" t="s">
+        <v>194</v>
+      </c>
+      <c r="H22" t="s">
+        <v>196</v>
+      </c>
+      <c r="I22" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N22" t="s">
+        <v>82</v>
+      </c>
+      <c r="O22" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" t="s">
+        <v>194</v>
+      </c>
+      <c r="H23" t="s">
+        <v>197</v>
+      </c>
+      <c r="I23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23" t="s">
+        <v>82</v>
+      </c>
+      <c r="O23" t="s">
+        <v>94</v>
+      </c>
+      <c r="P23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" t="s">
+        <v>202</v>
+      </c>
+      <c r="H24" t="s">
+        <v>203</v>
+      </c>
+      <c r="I24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>72</v>
+      </c>
+      <c r="N24" t="s">
+        <v>82</v>
+      </c>
+      <c r="O24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P24" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" t="s">
+        <v>202</v>
+      </c>
+      <c r="H25" t="s">
+        <v>204</v>
+      </c>
+      <c r="I25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>72</v>
+      </c>
+      <c r="N25" t="s">
+        <v>82</v>
+      </c>
+      <c r="O25" t="s">
+        <v>94</v>
+      </c>
+      <c r="P25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" t="s">
+        <v>202</v>
+      </c>
+      <c r="H26" t="s">
+        <v>205</v>
+      </c>
+      <c r="I26" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>72</v>
+      </c>
+      <c r="N26" t="s">
+        <v>82</v>
+      </c>
+      <c r="O26" t="s">
+        <v>94</v>
+      </c>
+      <c r="P26" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" t="s">
+        <v>210</v>
+      </c>
+      <c r="I27" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>72</v>
+      </c>
+      <c r="N27" t="s">
+        <v>64</v>
+      </c>
+      <c r="O27" t="s">
+        <v>151</v>
+      </c>
+      <c r="P27" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" t="s">
+        <v>184</v>
+      </c>
+      <c r="G28" t="s">
+        <v>184</v>
+      </c>
+      <c r="H28" t="s">
+        <v>185</v>
+      </c>
+      <c r="I28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>72</v>
+      </c>
+      <c r="N28" t="s">
+        <v>64</v>
+      </c>
+      <c r="O28" t="s">
+        <v>152</v>
+      </c>
+      <c r="P28" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" t="s">
+        <v>184</v>
+      </c>
+      <c r="G29" t="s">
+        <v>184</v>
+      </c>
+      <c r="H29" t="s">
+        <v>210</v>
+      </c>
+      <c r="I29" t="s">
+        <v>62</v>
+      </c>
+      <c r="J29" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>72</v>
+      </c>
+      <c r="N29" t="s">
+        <v>82</v>
+      </c>
+      <c r="O29" t="s">
+        <v>153</v>
+      </c>
+      <c r="P29" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" t="s">
+        <v>184</v>
+      </c>
+      <c r="G30" t="s">
+        <v>184</v>
+      </c>
+      <c r="H30" t="s">
+        <v>185</v>
+      </c>
+      <c r="I30" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>72</v>
+      </c>
+      <c r="N30" t="s">
+        <v>82</v>
+      </c>
+      <c r="O30" t="s">
+        <v>154</v>
+      </c>
+      <c r="P30" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" t="s">
+        <v>201</v>
+      </c>
+      <c r="G31" t="s">
+        <v>202</v>
+      </c>
+      <c r="H31" t="s">
+        <v>215</v>
+      </c>
+      <c r="I31" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>72</v>
+      </c>
+      <c r="N31" t="s">
+        <v>64</v>
+      </c>
+      <c r="O31" t="s">
+        <v>151</v>
+      </c>
+      <c r="P31" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B32" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" t="s">
+        <v>201</v>
+      </c>
+      <c r="G32" t="s">
+        <v>202</v>
+      </c>
+      <c r="H32" t="s">
+        <v>203</v>
+      </c>
+      <c r="I32" t="s">
+        <v>62</v>
+      </c>
+      <c r="J32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>72</v>
+      </c>
+      <c r="N32" t="s">
+        <v>64</v>
+      </c>
+      <c r="O32" t="s">
+        <v>152</v>
+      </c>
+      <c r="P32" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" t="s">
+        <v>201</v>
+      </c>
+      <c r="G33" t="s">
+        <v>202</v>
+      </c>
+      <c r="H33" t="s">
+        <v>215</v>
+      </c>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>72</v>
+      </c>
+      <c r="N33" t="s">
+        <v>82</v>
+      </c>
+      <c r="O33" t="s">
+        <v>153</v>
+      </c>
+      <c r="P33" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" t="s">
+        <v>201</v>
+      </c>
+      <c r="G34" t="s">
+        <v>202</v>
+      </c>
+      <c r="H34" t="s">
+        <v>203</v>
+      </c>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>72</v>
+      </c>
+      <c r="N34" t="s">
+        <v>82</v>
+      </c>
+      <c r="O34" t="s">
+        <v>154</v>
+      </c>
+      <c r="P34" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" t="s">
+        <v>224</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35" t="s">
+        <v>193</v>
+      </c>
+      <c r="G35" t="s">
+        <v>194</v>
+      </c>
+      <c r="H35" t="s">
+        <v>220</v>
+      </c>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>72</v>
+      </c>
+      <c r="N35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O35" t="s">
+        <v>151</v>
+      </c>
+      <c r="P35" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" t="s">
+        <v>193</v>
+      </c>
+      <c r="G36" t="s">
+        <v>194</v>
+      </c>
+      <c r="H36" t="s">
+        <v>195</v>
+      </c>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>72</v>
+      </c>
+      <c r="N36" t="s">
+        <v>64</v>
+      </c>
+      <c r="O36" t="s">
+        <v>152</v>
+      </c>
+      <c r="P36" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B37" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" t="s">
+        <v>193</v>
+      </c>
+      <c r="G37" t="s">
+        <v>194</v>
+      </c>
+      <c r="H37" t="s">
+        <v>220</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>72</v>
+      </c>
+      <c r="N37" t="s">
+        <v>82</v>
+      </c>
+      <c r="O37" t="s">
+        <v>153</v>
+      </c>
+      <c r="P37" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" t="s">
+        <v>164</v>
+      </c>
+      <c r="F38" t="s">
+        <v>193</v>
+      </c>
+      <c r="G38" t="s">
+        <v>194</v>
+      </c>
+      <c r="H38" t="s">
+        <v>195</v>
+      </c>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+      <c r="J38" t="s">
+        <v>63</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>72</v>
+      </c>
+      <c r="N38" t="s">
+        <v>82</v>
+      </c>
+      <c r="O38" t="s">
+        <v>154</v>
+      </c>
+      <c r="P38" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" t="s">
+        <v>184</v>
+      </c>
+      <c r="G39" t="s">
+        <v>184</v>
+      </c>
+      <c r="H39" t="s">
+        <v>189</v>
+      </c>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+      <c r="J39" t="s">
+        <v>63</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>64</v>
+      </c>
+      <c r="O39">
+        <v>1000</v>
+      </c>
+      <c r="P39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>222</v>
+      </c>
+      <c r="B40" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40" t="s">
+        <v>184</v>
+      </c>
+      <c r="G40" t="s">
+        <v>184</v>
+      </c>
+      <c r="H40" t="s">
+        <v>189</v>
+      </c>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+      <c r="J40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>72</v>
+      </c>
+      <c r="N40" t="s">
+        <v>64</v>
+      </c>
+      <c r="O40">
+        <v>2000</v>
+      </c>
+      <c r="P40" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q40">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="O@"/>
+    <hyperlink ref="B39" r:id="rId2" display="O@"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/alerts/Alert Parameters (working).xlsx
+++ b/alerts/Alert Parameters (working).xlsx
@@ -631,21 +631,9 @@
     <t>Dead_IAQ_sensor_alert_Lee3</t>
   </si>
   <si>
-    <t>LEE3</t>
-  </si>
-  <si>
     <t>Lee III</t>
   </si>
   <si>
-    <t>CEVAC_LEE3_TEMP_LATEST</t>
-  </si>
-  <si>
-    <t>CEVAC_LEE3_POWER_LATEST</t>
-  </si>
-  <si>
-    <t>CEVAC_LEE3_IAQ_LATEST</t>
-  </si>
-  <si>
     <t>Temp_High_warning_ASC</t>
   </si>
   <si>
@@ -673,9 +661,6 @@
     <t>Temp_Low_alert_Lee3</t>
   </si>
   <si>
-    <t>CEVAC_LEE3_TEMP_DAY</t>
-  </si>
-  <si>
     <t>Temp_High_warning_Cooper</t>
   </si>
   <si>
@@ -704,6 +689,21 @@
   </si>
   <si>
     <t>metric</t>
+  </si>
+  <si>
+    <t>LEE_III</t>
+  </si>
+  <si>
+    <t>CEVAC_LEE_III_TEMP_LATEST</t>
+  </si>
+  <si>
+    <t>CEVAC_LEE_III_POWER_LATEST</t>
+  </si>
+  <si>
+    <t>CEVAC_LEE_III_IAQ_LATEST</t>
+  </si>
+  <si>
+    <t>CEVAC_LEE_III_TEMP_DAY</t>
   </si>
 </sst>
 </file>
@@ -3128,8 +3128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3157,7 +3157,7 @@
         <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C1" t="s">
         <v>125</v>
@@ -3210,7 +3210,7 @@
         <v>168</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -3263,7 +3263,7 @@
         <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
@@ -3581,7 +3581,7 @@
         <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C9" t="s">
         <v>72</v>
@@ -3634,7 +3634,7 @@
         <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C10" t="s">
         <v>72</v>
@@ -3687,7 +3687,7 @@
         <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C11" t="s">
         <v>72</v>
@@ -3740,7 +3740,7 @@
         <v>177</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C12" t="s">
         <v>72</v>
@@ -3899,7 +3899,7 @@
         <v>180</v>
       </c>
       <c r="B15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C15" t="s">
         <v>72</v>
@@ -4005,7 +4005,7 @@
         <v>182</v>
       </c>
       <c r="B17" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C17" t="s">
         <v>72</v>
@@ -4058,7 +4058,7 @@
         <v>183</v>
       </c>
       <c r="B18" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C18" t="s">
         <v>72</v>
@@ -4164,7 +4164,7 @@
         <v>188</v>
       </c>
       <c r="B20" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s">
         <v>72</v>
@@ -4217,7 +4217,7 @@
         <v>190</v>
       </c>
       <c r="B21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C21" t="s">
         <v>72</v>
@@ -4323,7 +4323,7 @@
         <v>192</v>
       </c>
       <c r="B23" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C23" t="s">
         <v>72</v>
@@ -4376,7 +4376,7 @@
         <v>198</v>
       </c>
       <c r="B24" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C24" t="s">
         <v>72</v>
@@ -4388,13 +4388,13 @@
         <v>163</v>
       </c>
       <c r="F24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" t="s">
         <v>201</v>
       </c>
-      <c r="G24" t="s">
-        <v>202</v>
-      </c>
       <c r="H24" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="I24" t="s">
         <v>63</v>
@@ -4441,13 +4441,13 @@
         <v>163</v>
       </c>
       <c r="F25" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" t="s">
         <v>201</v>
       </c>
-      <c r="G25" t="s">
-        <v>202</v>
-      </c>
       <c r="H25" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="I25" t="s">
         <v>63</v>
@@ -4482,7 +4482,7 @@
         <v>200</v>
       </c>
       <c r="B26" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C26" t="s">
         <v>72</v>
@@ -4494,13 +4494,13 @@
         <v>163</v>
       </c>
       <c r="F26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" t="s">
         <v>201</v>
       </c>
-      <c r="G26" t="s">
-        <v>202</v>
-      </c>
       <c r="H26" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="I26" t="s">
         <v>63</v>
@@ -4532,10 +4532,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
@@ -4553,7 +4553,7 @@
         <v>184</v>
       </c>
       <c r="H27" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I27" t="s">
         <v>62</v>
@@ -4585,10 +4585,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C28" t="s">
         <v>72</v>
@@ -4638,10 +4638,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B29" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C29" t="s">
         <v>72</v>
@@ -4659,7 +4659,7 @@
         <v>184</v>
       </c>
       <c r="H29" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I29" t="s">
         <v>62</v>
@@ -4691,10 +4691,10 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C30" t="s">
         <v>72</v>
@@ -4744,10 +4744,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B31" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C31" t="s">
         <v>72</v>
@@ -4759,13 +4759,13 @@
         <v>165</v>
       </c>
       <c r="F31" t="s">
+        <v>221</v>
+      </c>
+      <c r="G31" t="s">
         <v>201</v>
       </c>
-      <c r="G31" t="s">
-        <v>202</v>
-      </c>
       <c r="H31" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="I31" t="s">
         <v>62</v>
@@ -4797,10 +4797,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C32" t="s">
         <v>72</v>
@@ -4812,13 +4812,13 @@
         <v>165</v>
       </c>
       <c r="F32" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" t="s">
         <v>201</v>
       </c>
-      <c r="G32" t="s">
-        <v>202</v>
-      </c>
       <c r="H32" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="I32" t="s">
         <v>62</v>
@@ -4850,10 +4850,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B33" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" t="s">
         <v>72</v>
@@ -4865,13 +4865,13 @@
         <v>164</v>
       </c>
       <c r="F33" t="s">
+        <v>221</v>
+      </c>
+      <c r="G33" t="s">
         <v>201</v>
       </c>
-      <c r="G33" t="s">
-        <v>202</v>
-      </c>
       <c r="H33" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="I33" t="s">
         <v>62</v>
@@ -4903,10 +4903,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B34" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C34" t="s">
         <v>72</v>
@@ -4918,13 +4918,13 @@
         <v>164</v>
       </c>
       <c r="F34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G34" t="s">
         <v>201</v>
       </c>
-      <c r="G34" t="s">
-        <v>202</v>
-      </c>
       <c r="H34" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="I34" t="s">
         <v>62</v>
@@ -4956,10 +4956,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B35" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C35" t="s">
         <v>72</v>
@@ -4977,7 +4977,7 @@
         <v>194</v>
       </c>
       <c r="H35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I35" t="s">
         <v>62</v>
@@ -5009,10 +5009,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B36" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C36" t="s">
         <v>72</v>
@@ -5062,10 +5062,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B37" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C37" t="s">
         <v>72</v>
@@ -5083,7 +5083,7 @@
         <v>194</v>
       </c>
       <c r="H37" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I37" t="s">
         <v>62</v>
@@ -5115,10 +5115,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" t="s">
         <v>219</v>
-      </c>
-      <c r="B38" t="s">
-        <v>224</v>
       </c>
       <c r="C38" t="s">
         <v>72</v>
@@ -5168,10 +5168,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C39" t="s">
         <v>72</v>
@@ -5221,10 +5221,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B40" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C40" t="s">
         <v>72</v>

--- a/alerts/Alert Parameters (working).xlsx
+++ b/alerts/Alert Parameters (working).xlsx
@@ -607,9 +607,6 @@
     <t>Dead_IAQ_sensor_alert_Cooper</t>
   </si>
   <si>
-    <t>COOP</t>
-  </si>
-  <si>
     <t>Cooper</t>
   </si>
   <si>
@@ -704,6 +701,9 @@
   </si>
   <si>
     <t>CEVAC_LEE_III_TEMP_DAY</t>
+  </si>
+  <si>
+    <t>COOPER</t>
   </si>
 </sst>
 </file>
@@ -3129,7 +3129,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3157,7 +3157,7 @@
         <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C1" t="s">
         <v>125</v>
@@ -3210,7 +3210,7 @@
         <v>168</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -3263,7 +3263,7 @@
         <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
@@ -3581,7 +3581,7 @@
         <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
         <v>72</v>
@@ -3634,7 +3634,7 @@
         <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" t="s">
         <v>72</v>
@@ -3687,7 +3687,7 @@
         <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
         <v>72</v>
@@ -3740,7 +3740,7 @@
         <v>177</v>
       </c>
       <c r="B12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C12" t="s">
         <v>72</v>
@@ -3899,7 +3899,7 @@
         <v>180</v>
       </c>
       <c r="B15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C15" t="s">
         <v>72</v>
@@ -4005,7 +4005,7 @@
         <v>182</v>
       </c>
       <c r="B17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
         <v>72</v>
@@ -4058,7 +4058,7 @@
         <v>183</v>
       </c>
       <c r="B18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C18" t="s">
         <v>72</v>
@@ -4164,7 +4164,7 @@
         <v>188</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C20" t="s">
         <v>72</v>
@@ -4217,7 +4217,7 @@
         <v>190</v>
       </c>
       <c r="B21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" t="s">
         <v>72</v>
@@ -4229,13 +4229,13 @@
         <v>163</v>
       </c>
       <c r="F21" t="s">
+        <v>225</v>
+      </c>
+      <c r="G21" t="s">
         <v>193</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>194</v>
-      </c>
-      <c r="H21" t="s">
-        <v>195</v>
       </c>
       <c r="I21" t="s">
         <v>63</v>
@@ -4282,13 +4282,13 @@
         <v>163</v>
       </c>
       <c r="F22" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" t="s">
         <v>193</v>
       </c>
-      <c r="G22" t="s">
-        <v>194</v>
-      </c>
       <c r="H22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I22" t="s">
         <v>63</v>
@@ -4323,7 +4323,7 @@
         <v>192</v>
       </c>
       <c r="B23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C23" t="s">
         <v>72</v>
@@ -4335,13 +4335,13 @@
         <v>163</v>
       </c>
       <c r="F23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" t="s">
         <v>193</v>
       </c>
-      <c r="G23" t="s">
-        <v>194</v>
-      </c>
       <c r="H23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I23" t="s">
         <v>63</v>
@@ -4373,10 +4373,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C24" t="s">
         <v>72</v>
@@ -4388,13 +4388,13 @@
         <v>163</v>
       </c>
       <c r="F24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" t="s">
+        <v>200</v>
+      </c>
+      <c r="H24" t="s">
         <v>221</v>
-      </c>
-      <c r="G24" t="s">
-        <v>201</v>
-      </c>
-      <c r="H24" t="s">
-        <v>222</v>
       </c>
       <c r="I24" t="s">
         <v>63</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B25" t="s">
         <v>69</v>
@@ -4441,13 +4441,13 @@
         <v>163</v>
       </c>
       <c r="F25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I25" t="s">
         <v>63</v>
@@ -4479,10 +4479,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C26" t="s">
         <v>72</v>
@@ -4494,13 +4494,13 @@
         <v>163</v>
       </c>
       <c r="F26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I26" t="s">
         <v>63</v>
@@ -4532,10 +4532,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
@@ -4553,7 +4553,7 @@
         <v>184</v>
       </c>
       <c r="H27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I27" t="s">
         <v>62</v>
@@ -4585,10 +4585,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C28" t="s">
         <v>72</v>
@@ -4638,10 +4638,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C29" t="s">
         <v>72</v>
@@ -4659,7 +4659,7 @@
         <v>184</v>
       </c>
       <c r="H29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I29" t="s">
         <v>62</v>
@@ -4691,10 +4691,10 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C30" t="s">
         <v>72</v>
@@ -4744,10 +4744,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C31" t="s">
         <v>72</v>
@@ -4759,13 +4759,13 @@
         <v>165</v>
       </c>
       <c r="F31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I31" t="s">
         <v>62</v>
@@ -4797,10 +4797,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C32" t="s">
         <v>72</v>
@@ -4812,13 +4812,13 @@
         <v>165</v>
       </c>
       <c r="F32" t="s">
+        <v>220</v>
+      </c>
+      <c r="G32" t="s">
+        <v>200</v>
+      </c>
+      <c r="H32" t="s">
         <v>221</v>
-      </c>
-      <c r="G32" t="s">
-        <v>201</v>
-      </c>
-      <c r="H32" t="s">
-        <v>222</v>
       </c>
       <c r="I32" t="s">
         <v>62</v>
@@ -4850,10 +4850,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C33" t="s">
         <v>72</v>
@@ -4865,13 +4865,13 @@
         <v>164</v>
       </c>
       <c r="F33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I33" t="s">
         <v>62</v>
@@ -4903,10 +4903,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C34" t="s">
         <v>72</v>
@@ -4918,13 +4918,13 @@
         <v>164</v>
       </c>
       <c r="F34" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34" t="s">
+        <v>200</v>
+      </c>
+      <c r="H34" t="s">
         <v>221</v>
-      </c>
-      <c r="G34" t="s">
-        <v>201</v>
-      </c>
-      <c r="H34" t="s">
-        <v>222</v>
       </c>
       <c r="I34" t="s">
         <v>62</v>
@@ -4956,10 +4956,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C35" t="s">
         <v>72</v>
@@ -4971,13 +4971,13 @@
         <v>165</v>
       </c>
       <c r="F35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G35" t="s">
         <v>193</v>
       </c>
-      <c r="G35" t="s">
-        <v>194</v>
-      </c>
       <c r="H35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I35" t="s">
         <v>62</v>
@@ -5009,10 +5009,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C36" t="s">
         <v>72</v>
@@ -5024,13 +5024,13 @@
         <v>165</v>
       </c>
       <c r="F36" t="s">
+        <v>225</v>
+      </c>
+      <c r="G36" t="s">
         <v>193</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>194</v>
-      </c>
-      <c r="H36" t="s">
-        <v>195</v>
       </c>
       <c r="I36" t="s">
         <v>62</v>
@@ -5062,10 +5062,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C37" t="s">
         <v>72</v>
@@ -5077,13 +5077,13 @@
         <v>164</v>
       </c>
       <c r="F37" t="s">
+        <v>225</v>
+      </c>
+      <c r="G37" t="s">
         <v>193</v>
       </c>
-      <c r="G37" t="s">
-        <v>194</v>
-      </c>
       <c r="H37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I37" t="s">
         <v>62</v>
@@ -5115,10 +5115,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C38" t="s">
         <v>72</v>
@@ -5130,13 +5130,13 @@
         <v>164</v>
       </c>
       <c r="F38" t="s">
+        <v>225</v>
+      </c>
+      <c r="G38" t="s">
         <v>193</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>194</v>
-      </c>
-      <c r="H38" t="s">
-        <v>195</v>
       </c>
       <c r="I38" t="s">
         <v>62</v>
@@ -5168,10 +5168,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C39" t="s">
         <v>72</v>
@@ -5221,10 +5221,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>216</v>
+      </c>
+      <c r="B40" t="s">
         <v>217</v>
-      </c>
-      <c r="B40" t="s">
-        <v>218</v>
       </c>
       <c r="C40" t="s">
         <v>72</v>

--- a/alerts/Alert Parameters (working).xlsx
+++ b/alerts/Alert Parameters (working).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="227">
   <si>
     <t>Alert</t>
   </si>
@@ -682,9 +682,6 @@
     <t>IAQ</t>
   </si>
   <si>
-    <t>Temp</t>
-  </si>
-  <si>
     <t>metric</t>
   </si>
   <si>
@@ -704,6 +701,12 @@
   </si>
   <si>
     <t>COOPER</t>
+  </si>
+  <si>
+    <t>POWER</t>
+  </si>
+  <si>
+    <t>TEMP</t>
   </si>
 </sst>
 </file>
@@ -3128,8 +3131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3157,7 +3160,7 @@
         <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C1" t="s">
         <v>125</v>
@@ -3316,7 +3319,7 @@
         <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
         <v>101</v>
@@ -3369,7 +3372,7 @@
         <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
         <v>105</v>
@@ -3422,7 +3425,7 @@
         <v>171</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
         <v>110</v>
@@ -3475,7 +3478,7 @@
         <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c r="C7" t="s">
         <v>114</v>
@@ -3528,7 +3531,7 @@
         <v>173</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
@@ -3581,7 +3584,7 @@
         <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C9" t="s">
         <v>72</v>
@@ -3634,7 +3637,7 @@
         <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C10" t="s">
         <v>72</v>
@@ -3687,7 +3690,7 @@
         <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C11" t="s">
         <v>72</v>
@@ -3740,7 +3743,7 @@
         <v>177</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C12" t="s">
         <v>72</v>
@@ -3793,7 +3796,7 @@
         <v>178</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c r="C13" t="s">
         <v>73</v>
@@ -3846,7 +3849,7 @@
         <v>179</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
         <v>72</v>
@@ -3899,7 +3902,7 @@
         <v>180</v>
       </c>
       <c r="B15" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C15" t="s">
         <v>72</v>
@@ -3952,7 +3955,7 @@
         <v>181</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c r="C16" t="s">
         <v>72</v>
@@ -4058,7 +4061,7 @@
         <v>183</v>
       </c>
       <c r="B18" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C18" t="s">
         <v>72</v>
@@ -4111,7 +4114,7 @@
         <v>186</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c r="C19" t="s">
         <v>72</v>
@@ -4217,7 +4220,7 @@
         <v>190</v>
       </c>
       <c r="B21" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C21" t="s">
         <v>72</v>
@@ -4229,7 +4232,7 @@
         <v>163</v>
       </c>
       <c r="F21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s">
         <v>193</v>
@@ -4270,7 +4273,7 @@
         <v>191</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c r="C22" t="s">
         <v>72</v>
@@ -4282,7 +4285,7 @@
         <v>163</v>
       </c>
       <c r="F22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G22" t="s">
         <v>193</v>
@@ -4335,7 +4338,7 @@
         <v>163</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G23" t="s">
         <v>193</v>
@@ -4376,7 +4379,7 @@
         <v>197</v>
       </c>
       <c r="B24" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C24" t="s">
         <v>72</v>
@@ -4388,13 +4391,13 @@
         <v>163</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G24" t="s">
         <v>200</v>
       </c>
       <c r="H24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I24" t="s">
         <v>63</v>
@@ -4429,7 +4432,7 @@
         <v>198</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c r="C25" t="s">
         <v>72</v>
@@ -4441,13 +4444,13 @@
         <v>163</v>
       </c>
       <c r="F25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G25" t="s">
         <v>200</v>
       </c>
       <c r="H25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I25" t="s">
         <v>63</v>
@@ -4494,13 +4497,13 @@
         <v>163</v>
       </c>
       <c r="F26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G26" t="s">
         <v>200</v>
       </c>
       <c r="H26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I26" t="s">
         <v>63</v>
@@ -4535,7 +4538,7 @@
         <v>201</v>
       </c>
       <c r="B27" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
@@ -4588,7 +4591,7 @@
         <v>202</v>
       </c>
       <c r="B28" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C28" t="s">
         <v>72</v>
@@ -4641,7 +4644,7 @@
         <v>203</v>
       </c>
       <c r="B29" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C29" t="s">
         <v>72</v>
@@ -4694,7 +4697,7 @@
         <v>204</v>
       </c>
       <c r="B30" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C30" t="s">
         <v>72</v>
@@ -4747,7 +4750,7 @@
         <v>206</v>
       </c>
       <c r="B31" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C31" t="s">
         <v>72</v>
@@ -4759,13 +4762,13 @@
         <v>165</v>
       </c>
       <c r="F31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G31" t="s">
         <v>200</v>
       </c>
       <c r="H31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I31" t="s">
         <v>62</v>
@@ -4800,7 +4803,7 @@
         <v>207</v>
       </c>
       <c r="B32" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C32" t="s">
         <v>72</v>
@@ -4812,13 +4815,13 @@
         <v>165</v>
       </c>
       <c r="F32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G32" t="s">
         <v>200</v>
       </c>
       <c r="H32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I32" t="s">
         <v>62</v>
@@ -4853,7 +4856,7 @@
         <v>208</v>
       </c>
       <c r="B33" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C33" t="s">
         <v>72</v>
@@ -4865,13 +4868,13 @@
         <v>164</v>
       </c>
       <c r="F33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G33" t="s">
         <v>200</v>
       </c>
       <c r="H33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I33" t="s">
         <v>62</v>
@@ -4906,7 +4909,7 @@
         <v>209</v>
       </c>
       <c r="B34" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C34" t="s">
         <v>72</v>
@@ -4918,13 +4921,13 @@
         <v>164</v>
       </c>
       <c r="F34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G34" t="s">
         <v>200</v>
       </c>
       <c r="H34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I34" t="s">
         <v>62</v>
@@ -4959,7 +4962,7 @@
         <v>210</v>
       </c>
       <c r="B35" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C35" t="s">
         <v>72</v>
@@ -4971,7 +4974,7 @@
         <v>165</v>
       </c>
       <c r="F35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G35" t="s">
         <v>193</v>
@@ -5012,7 +5015,7 @@
         <v>211</v>
       </c>
       <c r="B36" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C36" t="s">
         <v>72</v>
@@ -5024,7 +5027,7 @@
         <v>165</v>
       </c>
       <c r="F36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G36" t="s">
         <v>193</v>
@@ -5065,7 +5068,7 @@
         <v>212</v>
       </c>
       <c r="B37" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C37" t="s">
         <v>72</v>
@@ -5077,7 +5080,7 @@
         <v>164</v>
       </c>
       <c r="F37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G37" t="s">
         <v>193</v>
@@ -5118,7 +5121,7 @@
         <v>213</v>
       </c>
       <c r="B38" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C38" t="s">
         <v>72</v>
@@ -5130,7 +5133,7 @@
         <v>164</v>
       </c>
       <c r="F38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G38" t="s">
         <v>193</v>

--- a/alerts/Alert Parameters (working).xlsx
+++ b/alerts/Alert Parameters (working).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="228">
   <si>
     <t>Alert</t>
   </si>
@@ -508,18 +508,6 @@
     <t>The building is unoccupied but is using a lot of power.</t>
   </si>
   <si>
-    <t>bldg_std</t>
-  </si>
-  <si>
-    <t>bldg_disp</t>
-  </si>
-  <si>
-    <t>Watt</t>
-  </si>
-  <si>
-    <t>&lt;alias&gt; has not reported recently.</t>
-  </si>
-  <si>
     <t>&lt;alias&gt; reads &lt;ActualValue&gt; [deg-F] (Heating SP = &lt;Heating SP&gt; [deg-F])</t>
   </si>
   <si>
@@ -607,9 +595,6 @@
     <t>Dead_IAQ_sensor_alert_Cooper</t>
   </si>
   <si>
-    <t>Cooper</t>
-  </si>
-  <si>
     <t>CEVAC_COOPER_TEMP_LATEST</t>
   </si>
   <si>
@@ -628,9 +613,6 @@
     <t>Dead_IAQ_sensor_alert_Lee3</t>
   </si>
   <si>
-    <t>Lee III</t>
-  </si>
-  <si>
     <t>Temp_High_warning_ASC</t>
   </si>
   <si>
@@ -707,6 +689,27 @@
   </si>
   <si>
     <t>TEMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;alias&gt; has not reported in &lt;days&gt; days. </t>
+  </si>
+  <si>
+    <t>Watt Family Innovation Center</t>
+  </si>
+  <si>
+    <t>Academic Success Center</t>
+  </si>
+  <si>
+    <t>Robert Muldrow Cooper L</t>
+  </si>
+  <si>
+    <t>Building Description</t>
+  </si>
+  <si>
+    <t>Building Standard Name</t>
+  </si>
+  <si>
+    <t>Lee III Hall</t>
   </si>
 </sst>
 </file>
@@ -3131,8 +3134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3142,8 +3145,8 @@
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
@@ -3160,7 +3163,7 @@
         <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
         <v>125</v>
@@ -3172,10 +3175,10 @@
         <v>145</v>
       </c>
       <c r="F1" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="G1" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="H1" t="s">
         <v>49</v>
@@ -3205,15 +3208,15 @@
         <v>147</v>
       </c>
       <c r="Q1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -3228,7 +3231,7 @@
         <v>157</v>
       </c>
       <c r="G2" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="H2" t="s">
         <v>61</v>
@@ -3263,10 +3266,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
@@ -3281,7 +3284,7 @@
         <v>157</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="H3" t="s">
         <v>61</v>
@@ -3316,10 +3319,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C4" t="s">
         <v>101</v>
@@ -3334,7 +3337,7 @@
         <v>157</v>
       </c>
       <c r="G4" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="H4" t="s">
         <v>71</v>
@@ -3369,10 +3372,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C5" t="s">
         <v>105</v>
@@ -3387,7 +3390,7 @@
         <v>157</v>
       </c>
       <c r="G5" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="H5" t="s">
         <v>71</v>
@@ -3422,10 +3425,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C6" t="s">
         <v>110</v>
@@ -3440,7 +3443,7 @@
         <v>157</v>
       </c>
       <c r="G6" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="H6" t="s">
         <v>71</v>
@@ -3475,10 +3478,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C7" t="s">
         <v>114</v>
@@ -3493,7 +3496,7 @@
         <v>157</v>
       </c>
       <c r="G7" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="H7" t="s">
         <v>71</v>
@@ -3528,10 +3531,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
@@ -3546,7 +3549,7 @@
         <v>157</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="H8" t="s">
         <v>71</v>
@@ -3581,10 +3584,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s">
         <v>72</v>
@@ -3593,13 +3596,13 @@
         <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F9" t="s">
         <v>157</v>
       </c>
       <c r="G9" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="H9" t="s">
         <v>78</v>
@@ -3634,10 +3637,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
         <v>72</v>
@@ -3646,13 +3649,13 @@
         <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
         <v>157</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="H10" t="s">
         <v>97</v>
@@ -3687,10 +3690,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
         <v>72</v>
@@ -3699,13 +3702,13 @@
         <v>150</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F11" t="s">
         <v>157</v>
       </c>
       <c r="G11" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="H11" t="s">
         <v>78</v>
@@ -3740,10 +3743,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C12" t="s">
         <v>72</v>
@@ -3752,13 +3755,13 @@
         <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F12" t="s">
         <v>157</v>
       </c>
       <c r="G12" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="H12" t="s">
         <v>97</v>
@@ -3793,10 +3796,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C13" t="s">
         <v>73</v>
@@ -3811,7 +3814,7 @@
         <v>157</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="H13" t="s">
         <v>71</v>
@@ -3846,10 +3849,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C14" t="s">
         <v>72</v>
@@ -3864,7 +3867,7 @@
         <v>157</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="H14" t="s">
         <v>91</v>
@@ -3899,10 +3902,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C15" t="s">
         <v>72</v>
@@ -3911,13 +3914,13 @@
         <v>150</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="F15" t="s">
         <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="H15" t="s">
         <v>97</v>
@@ -3952,10 +3955,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C16" t="s">
         <v>72</v>
@@ -3964,13 +3967,13 @@
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="F16" t="s">
         <v>157</v>
       </c>
       <c r="G16" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="H16" t="s">
         <v>71</v>
@@ -4005,10 +4008,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C17" t="s">
         <v>72</v>
@@ -4017,13 +4020,13 @@
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="F17" t="s">
         <v>157</v>
       </c>
       <c r="G17" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="H17" t="s">
         <v>61</v>
@@ -4058,10 +4061,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C18" t="s">
         <v>72</v>
@@ -4070,16 +4073,16 @@
         <v>150</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="H18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I18" t="s">
         <v>63</v>
@@ -4111,10 +4114,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C19" t="s">
         <v>72</v>
@@ -4123,16 +4126,16 @@
         <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="F19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="H19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I19" t="s">
         <v>63</v>
@@ -4164,10 +4167,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C20" t="s">
         <v>72</v>
@@ -4176,16 +4179,16 @@
         <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G20" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="H20" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I20" t="s">
         <v>63</v>
@@ -4217,10 +4220,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C21" t="s">
         <v>72</v>
@@ -4229,16 +4232,16 @@
         <v>150</v>
       </c>
       <c r="E21" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="F21" t="s">
+        <v>218</v>
+      </c>
+      <c r="G21" t="s">
         <v>224</v>
       </c>
-      <c r="G21" t="s">
-        <v>193</v>
-      </c>
       <c r="H21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I21" t="s">
         <v>63</v>
@@ -4270,10 +4273,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C22" t="s">
         <v>72</v>
@@ -4282,16 +4285,16 @@
         <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="F22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G22" t="s">
         <v>224</v>
       </c>
-      <c r="G22" t="s">
-        <v>193</v>
-      </c>
       <c r="H22" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I22" t="s">
         <v>63</v>
@@ -4323,10 +4326,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C23" t="s">
         <v>72</v>
@@ -4335,16 +4338,16 @@
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="F23" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" t="s">
         <v>224</v>
       </c>
-      <c r="G23" t="s">
-        <v>193</v>
-      </c>
       <c r="H23" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I23" t="s">
         <v>63</v>
@@ -4376,10 +4379,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C24" t="s">
         <v>72</v>
@@ -4388,16 +4391,16 @@
         <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="F24" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G24" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="H24" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I24" t="s">
         <v>63</v>
@@ -4429,10 +4432,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C25" t="s">
         <v>72</v>
@@ -4441,16 +4444,16 @@
         <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="H25" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I25" t="s">
         <v>63</v>
@@ -4482,10 +4485,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B26" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C26" t="s">
         <v>72</v>
@@ -4494,16 +4497,16 @@
         <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="F26" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G26" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="H26" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I26" t="s">
         <v>63</v>
@@ -4535,10 +4538,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
@@ -4547,16 +4550,16 @@
         <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F27" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G27" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="H27" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I27" t="s">
         <v>62</v>
@@ -4588,10 +4591,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B28" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C28" t="s">
         <v>72</v>
@@ -4600,16 +4603,16 @@
         <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G28" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="H28" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I28" t="s">
         <v>62</v>
@@ -4641,10 +4644,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B29" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C29" t="s">
         <v>72</v>
@@ -4653,16 +4656,16 @@
         <v>150</v>
       </c>
       <c r="E29" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F29" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G29" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="H29" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I29" t="s">
         <v>62</v>
@@ -4694,10 +4697,10 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C30" t="s">
         <v>72</v>
@@ -4706,16 +4709,16 @@
         <v>150</v>
       </c>
       <c r="E30" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F30" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G30" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="H30" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I30" t="s">
         <v>62</v>
@@ -4747,10 +4750,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B31" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C31" t="s">
         <v>72</v>
@@ -4759,16 +4762,16 @@
         <v>150</v>
       </c>
       <c r="E31" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F31" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G31" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="H31" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I31" t="s">
         <v>62</v>
@@ -4800,10 +4803,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B32" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C32" t="s">
         <v>72</v>
@@ -4812,16 +4815,16 @@
         <v>150</v>
       </c>
       <c r="E32" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F32" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G32" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="H32" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I32" t="s">
         <v>62</v>
@@ -4853,10 +4856,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B33" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C33" t="s">
         <v>72</v>
@@ -4865,16 +4868,16 @@
         <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F33" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G33" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="H33" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I33" t="s">
         <v>62</v>
@@ -4906,10 +4909,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B34" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C34" t="s">
         <v>72</v>
@@ -4918,16 +4921,16 @@
         <v>150</v>
       </c>
       <c r="E34" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F34" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G34" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="H34" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I34" t="s">
         <v>62</v>
@@ -4959,10 +4962,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B35" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C35" t="s">
         <v>72</v>
@@ -4971,16 +4974,16 @@
         <v>150</v>
       </c>
       <c r="E35" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F35" t="s">
+        <v>218</v>
+      </c>
+      <c r="G35" t="s">
         <v>224</v>
       </c>
-      <c r="G35" t="s">
-        <v>193</v>
-      </c>
       <c r="H35" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I35" t="s">
         <v>62</v>
@@ -5012,10 +5015,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B36" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C36" t="s">
         <v>72</v>
@@ -5024,16 +5027,16 @@
         <v>150</v>
       </c>
       <c r="E36" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F36" t="s">
+        <v>218</v>
+      </c>
+      <c r="G36" t="s">
         <v>224</v>
       </c>
-      <c r="G36" t="s">
-        <v>193</v>
-      </c>
       <c r="H36" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I36" t="s">
         <v>62</v>
@@ -5065,10 +5068,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B37" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C37" t="s">
         <v>72</v>
@@ -5077,16 +5080,16 @@
         <v>150</v>
       </c>
       <c r="E37" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F37" t="s">
+        <v>218</v>
+      </c>
+      <c r="G37" t="s">
         <v>224</v>
       </c>
-      <c r="G37" t="s">
-        <v>193</v>
-      </c>
       <c r="H37" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I37" t="s">
         <v>62</v>
@@ -5118,10 +5121,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B38" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C38" t="s">
         <v>72</v>
@@ -5130,16 +5133,16 @@
         <v>150</v>
       </c>
       <c r="E38" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F38" t="s">
+        <v>218</v>
+      </c>
+      <c r="G38" t="s">
         <v>224</v>
       </c>
-      <c r="G38" t="s">
-        <v>193</v>
-      </c>
       <c r="H38" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I38" t="s">
         <v>62</v>
@@ -5171,10 +5174,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C39" t="s">
         <v>72</v>
@@ -5186,13 +5189,13 @@
         <v>148</v>
       </c>
       <c r="F39" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G39" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="H39" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I39" t="s">
         <v>62</v>
@@ -5224,10 +5227,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C40" t="s">
         <v>72</v>
@@ -5239,13 +5242,13 @@
         <v>149</v>
       </c>
       <c r="F40" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G40" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="H40" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I40" t="s">
         <v>62</v>

--- a/alerts/Alert Parameters (working).xlsx
+++ b/alerts/Alert Parameters (working).xlsx
@@ -17,7 +17,7 @@
     <sheet name="Third Iteration" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Third Iteration'!$A$1:$Q$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Third Iteration'!$A$1:$R$40</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="238">
   <si>
     <t>Alert</t>
   </si>
@@ -472,9 +472,6 @@
     <t>occupancy_status</t>
   </si>
   <si>
-    <t>alert_type</t>
-  </si>
-  <si>
     <t>&lt;alias&gt; exceeds 1000 ppm.</t>
   </si>
   <si>
@@ -586,9 +583,6 @@
     <t>Dead_IAQ_sensor_alert_ASC</t>
   </si>
   <si>
-    <t>CEVAC_ASC_IAQ_LATEST</t>
-  </si>
-  <si>
     <t>Dead_Temp_sensor_alert_Cooper</t>
   </si>
   <si>
@@ -604,9 +598,6 @@
     <t>CEVAC_COOPER_POWER_LATEST</t>
   </si>
   <si>
-    <t>CEVAC_COOPER_IAQ_LATEST</t>
-  </si>
-  <si>
     <t>Dead_Temp_sensor_alert_Lee3</t>
   </si>
   <si>
@@ -679,9 +670,6 @@
     <t>CEVAC_LEE_III_POWER_LATEST</t>
   </si>
   <si>
-    <t>CEVAC_LEE_III_IAQ_LATEST</t>
-  </si>
-  <si>
     <t>CEVAC_LEE_III_TEMP_DAY</t>
   </si>
   <si>
@@ -722,6 +710,39 @@
   </si>
   <si>
     <t>&lt;Heating SP ActualValue&gt;-3</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>CEVAC</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>CEVAC_WATT_CO2_LATEST</t>
+  </si>
+  <si>
+    <t>CEVAC_ASC_CO2_LATEST</t>
+  </si>
+  <si>
+    <t>CEVAC_COOPER_CO2_LATEST</t>
+  </si>
+  <si>
+    <t>CEVAC_LEE_III_CO2_LATEST</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1494,7 @@
         <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
@@ -1529,7 +1550,7 @@
         <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G3" t="s">
         <v>61</v>
@@ -1585,7 +1606,7 @@
         <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G4" t="s">
         <v>71</v>
@@ -1641,7 +1662,7 @@
         <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
         <v>71</v>
@@ -1697,7 +1718,7 @@
         <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G6" t="s">
         <v>71</v>
@@ -1753,7 +1774,7 @@
         <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G7" t="s">
         <v>71</v>
@@ -1809,7 +1830,7 @@
         <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G8" t="s">
         <v>71</v>
@@ -1865,7 +1886,7 @@
         <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G9" t="s">
         <v>71</v>
@@ -1921,7 +1942,7 @@
         <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G10" t="s">
         <v>71</v>
@@ -1977,7 +1998,7 @@
         <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G11" t="s">
         <v>71</v>
@@ -2033,7 +2054,7 @@
         <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G12" t="s">
         <v>71</v>
@@ -2089,7 +2110,7 @@
         <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
         <v>71</v>
@@ -2145,7 +2166,7 @@
         <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
         <v>71</v>
@@ -2201,7 +2222,7 @@
         <v>115</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
         <v>71</v>
@@ -2257,7 +2278,7 @@
         <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
         <v>71</v>
@@ -2313,7 +2334,7 @@
         <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
         <v>71</v>
@@ -2369,7 +2390,7 @@
         <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
         <v>71</v>
@@ -2425,7 +2446,7 @@
         <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
         <v>71</v>
@@ -2481,7 +2502,7 @@
         <v>119</v>
       </c>
       <c r="F20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G20" t="s">
         <v>71</v>
@@ -2537,7 +2558,7 @@
         <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G21" t="s">
         <v>71</v>
@@ -2593,7 +2614,7 @@
         <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G22" t="s">
         <v>91</v>
@@ -2649,7 +2670,7 @@
         <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G23" t="s">
         <v>91</v>
@@ -2705,7 +2726,7 @@
         <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G24" t="s">
         <v>91</v>
@@ -2761,7 +2782,7 @@
         <v>138</v>
       </c>
       <c r="F25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G25" t="s">
         <v>78</v>
@@ -2817,7 +2838,7 @@
         <v>140</v>
       </c>
       <c r="F26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G26" t="s">
         <v>78</v>
@@ -2873,7 +2894,7 @@
         <v>137</v>
       </c>
       <c r="F27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G27" t="s">
         <v>78</v>
@@ -2929,7 +2950,7 @@
         <v>139</v>
       </c>
       <c r="F28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G28" t="s">
         <v>78</v>
@@ -2962,7 +2983,7 @@
         <v>82</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R28" s="7" t="s">
         <v>66</v>
@@ -2985,7 +3006,7 @@
         <v>129</v>
       </c>
       <c r="F29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G29" t="s">
         <v>132</v>
@@ -3041,7 +3062,7 @@
         <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G30" t="s">
         <v>71</v>
@@ -3097,7 +3118,7 @@
         <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -3144,10 +3165,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="H22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3158,7 +3179,7 @@
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
@@ -3168,14 +3189,15 @@
     <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C1" t="s">
         <v>125</v>
@@ -3187,10 +3209,10 @@
         <v>145</v>
       </c>
       <c r="F1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H1" t="s">
         <v>49</v>
@@ -3217,18 +3239,24 @@
         <v>57</v>
       </c>
       <c r="P1" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="Q1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="R1" t="s">
+        <v>161</v>
+      </c>
+      <c r="S1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -3237,16 +3265,16 @@
         <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>234</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
@@ -3270,18 +3298,22 @@
         <v>1000</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="Q2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f>IF(P2="Low",1,IF(P2="Medium",2,3))</f>
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
@@ -3290,16 +3322,16 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>234</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -3320,21 +3352,25 @@
         <v>64</v>
       </c>
       <c r="O3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="Q3">
+        <f t="shared" ref="Q3:Q40" si="0">IF(P3="Low",1,IF(P3="Medium",2,3))</f>
+        <v>3</v>
+      </c>
+      <c r="R3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C4" t="s">
         <v>101</v>
@@ -3346,10 +3382,10 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H4" t="s">
         <v>71</v>
@@ -3376,18 +3412,22 @@
         <v>1.3</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C5" t="s">
         <v>105</v>
@@ -3399,10 +3439,10 @@
         <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H5" t="s">
         <v>71</v>
@@ -3429,18 +3469,22 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
         <v>110</v>
@@ -3452,10 +3496,10 @@
         <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H6" t="s">
         <v>71</v>
@@ -3482,18 +3526,22 @@
         <v>1.35</v>
       </c>
       <c r="P6" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C7" t="s">
         <v>114</v>
@@ -3505,10 +3553,10 @@
         <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H7" t="s">
         <v>71</v>
@@ -3535,18 +3583,22 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
@@ -3555,13 +3607,13 @@
         <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H8" t="s">
         <v>71</v>
@@ -3588,33 +3640,37 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C9" t="s">
         <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H9" t="s">
         <v>78</v>
@@ -3638,36 +3694,40 @@
         <v>64</v>
       </c>
       <c r="O9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P9" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C10" t="s">
         <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H10" t="s">
         <v>97</v>
@@ -3691,36 +3751,40 @@
         <v>64</v>
       </c>
       <c r="O10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P10" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C11" t="s">
         <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H11" t="s">
         <v>78</v>
@@ -3744,36 +3808,40 @@
         <v>82</v>
       </c>
       <c r="O11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P11" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C12" t="s">
         <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H12" t="s">
         <v>97</v>
@@ -3797,21 +3865,25 @@
         <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P12" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C13" t="s">
         <v>73</v>
@@ -3820,13 +3892,13 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" t="s">
         <v>156</v>
       </c>
-      <c r="F13" t="s">
-        <v>157</v>
-      </c>
       <c r="G13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H13" t="s">
         <v>71</v>
@@ -3853,18 +3925,22 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C14" t="s">
         <v>72</v>
@@ -3873,13 +3949,13 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H14" t="s">
         <v>91</v>
@@ -3906,33 +3982,37 @@
         <v>300</v>
       </c>
       <c r="P14" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C15" t="s">
         <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H15" t="s">
         <v>97</v>
@@ -3959,18 +4039,25 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C16" t="s">
         <v>72</v>
@@ -3979,13 +4066,13 @@
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H16" t="s">
         <v>71</v>
@@ -4012,18 +4099,25 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s">
         <v>72</v>
@@ -4032,16 +4126,16 @@
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>234</v>
       </c>
       <c r="I17" t="s">
         <v>63</v>
@@ -4065,36 +4159,43 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" t="s">
         <v>179</v>
       </c>
-      <c r="B18" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" t="s">
-        <v>221</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
+        <v>219</v>
+      </c>
+      <c r="H18" t="s">
         <v>180</v>
-      </c>
-      <c r="G18" t="s">
-        <v>223</v>
-      </c>
-      <c r="H18" t="s">
-        <v>181</v>
       </c>
       <c r="I18" t="s">
         <v>63</v>
@@ -4118,18 +4219,25 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C19" t="s">
         <v>72</v>
@@ -4138,16 +4246,16 @@
         <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I19" t="s">
         <v>63</v>
@@ -4171,18 +4279,25 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C20" t="s">
         <v>72</v>
@@ -4191,16 +4306,16 @@
         <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H20" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="I20" t="s">
         <v>63</v>
@@ -4224,36 +4339,43 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" t="s">
         <v>220</v>
       </c>
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E21" t="s">
-        <v>221</v>
-      </c>
-      <c r="F21" t="s">
-        <v>218</v>
-      </c>
-      <c r="G21" t="s">
-        <v>224</v>
-      </c>
       <c r="H21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I21" t="s">
         <v>63</v>
@@ -4277,18 +4399,25 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C22" t="s">
         <v>72</v>
@@ -4297,16 +4426,16 @@
         <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F22" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I22" t="s">
         <v>63</v>
@@ -4330,18 +4459,25 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C23" t="s">
         <v>72</v>
@@ -4350,16 +4486,16 @@
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F23" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G23" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H23" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="I23" t="s">
         <v>63</v>
@@ -4383,36 +4519,43 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C24" t="s">
         <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E24" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H24" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I24" t="s">
         <v>63</v>
@@ -4436,18 +4579,25 @@
         <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B25" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C25" t="s">
         <v>72</v>
@@ -4456,16 +4606,16 @@
         <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G25" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I25" t="s">
         <v>63</v>
@@ -4489,18 +4639,25 @@
         <v>94</v>
       </c>
       <c r="P25" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C26" t="s">
         <v>72</v>
@@ -4509,16 +4666,16 @@
         <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G26" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H26" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="I26" t="s">
         <v>63</v>
@@ -4542,36 +4699,43 @@
         <v>94</v>
       </c>
       <c r="P26" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G27" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I27" t="s">
         <v>62</v>
@@ -4592,39 +4756,43 @@
         <v>64</v>
       </c>
       <c r="O27" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P27" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B28" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C28" t="s">
         <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F28" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" t="s">
+        <v>219</v>
+      </c>
+      <c r="H28" t="s">
         <v>180</v>
-      </c>
-      <c r="G28" t="s">
-        <v>223</v>
-      </c>
-      <c r="H28" t="s">
-        <v>181</v>
       </c>
       <c r="I28" t="s">
         <v>62</v>
@@ -4645,39 +4813,43 @@
         <v>64</v>
       </c>
       <c r="O28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P28" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B29" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C29" t="s">
         <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G29" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H29" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I29" t="s">
         <v>62</v>
@@ -4698,39 +4870,43 @@
         <v>82</v>
       </c>
       <c r="O29" t="s">
+        <v>225</v>
+      </c>
+      <c r="P29" t="s">
         <v>229</v>
       </c>
-      <c r="P29" t="s">
-        <v>65</v>
-      </c>
       <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B30" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C30" t="s">
         <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F30" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" t="s">
+        <v>219</v>
+      </c>
+      <c r="H30" t="s">
         <v>180</v>
-      </c>
-      <c r="G30" t="s">
-        <v>223</v>
-      </c>
-      <c r="H30" t="s">
-        <v>181</v>
       </c>
       <c r="I30" t="s">
         <v>62</v>
@@ -4751,39 +4927,43 @@
         <v>82</v>
       </c>
       <c r="O30" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
       <c r="P30" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B31" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C31" t="s">
         <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F31" t="s">
+        <v>210</v>
+      </c>
+      <c r="G31" t="s">
+        <v>223</v>
+      </c>
+      <c r="H31" t="s">
         <v>213</v>
-      </c>
-      <c r="G31" t="s">
-        <v>227</v>
-      </c>
-      <c r="H31" t="s">
-        <v>217</v>
       </c>
       <c r="I31" t="s">
         <v>62</v>
@@ -4804,39 +4984,43 @@
         <v>64</v>
       </c>
       <c r="O31" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P31" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B32" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C32" t="s">
         <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F32" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G32" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H32" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I32" t="s">
         <v>62</v>
@@ -4857,39 +5041,43 @@
         <v>64</v>
       </c>
       <c r="O32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P32" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B33" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C33" t="s">
         <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F33" t="s">
+        <v>210</v>
+      </c>
+      <c r="G33" t="s">
+        <v>223</v>
+      </c>
+      <c r="H33" t="s">
         <v>213</v>
-      </c>
-      <c r="G33" t="s">
-        <v>227</v>
-      </c>
-      <c r="H33" t="s">
-        <v>217</v>
       </c>
       <c r="I33" t="s">
         <v>62</v>
@@ -4910,39 +5098,43 @@
         <v>82</v>
       </c>
       <c r="O33" t="s">
+        <v>225</v>
+      </c>
+      <c r="P33" t="s">
         <v>229</v>
       </c>
-      <c r="P33" t="s">
-        <v>65</v>
-      </c>
       <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C34" t="s">
         <v>72</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F34" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G34" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H34" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I34" t="s">
         <v>62</v>
@@ -4963,39 +5155,43 @@
         <v>82</v>
       </c>
       <c r="O34" t="s">
+        <v>226</v>
+      </c>
+      <c r="P34" t="s">
         <v>230</v>
       </c>
-      <c r="P34" t="s">
-        <v>66</v>
-      </c>
       <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" t="s">
+        <v>214</v>
+      </c>
+      <c r="G35" t="s">
         <v>220</v>
       </c>
-      <c r="C35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" t="s">
-        <v>150</v>
-      </c>
-      <c r="E35" t="s">
-        <v>161</v>
-      </c>
-      <c r="F35" t="s">
-        <v>218</v>
-      </c>
-      <c r="G35" t="s">
-        <v>224</v>
-      </c>
       <c r="H35" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I35" t="s">
         <v>62</v>
@@ -5016,39 +5212,43 @@
         <v>64</v>
       </c>
       <c r="O35" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P35" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B36" t="s">
+        <v>216</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" t="s">
+        <v>214</v>
+      </c>
+      <c r="G36" t="s">
         <v>220</v>
       </c>
-      <c r="C36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" t="s">
-        <v>161</v>
-      </c>
-      <c r="F36" t="s">
-        <v>218</v>
-      </c>
-      <c r="G36" t="s">
-        <v>224</v>
-      </c>
       <c r="H36" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I36" t="s">
         <v>62</v>
@@ -5069,39 +5269,43 @@
         <v>64</v>
       </c>
       <c r="O36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P36" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B37" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" t="s">
+        <v>159</v>
+      </c>
+      <c r="F37" t="s">
+        <v>214</v>
+      </c>
+      <c r="G37" t="s">
         <v>220</v>
       </c>
-      <c r="C37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" t="s">
-        <v>150</v>
-      </c>
-      <c r="E37" t="s">
-        <v>160</v>
-      </c>
-      <c r="F37" t="s">
-        <v>218</v>
-      </c>
-      <c r="G37" t="s">
-        <v>224</v>
-      </c>
       <c r="H37" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I37" t="s">
         <v>62</v>
@@ -5122,39 +5326,43 @@
         <v>82</v>
       </c>
       <c r="O37" t="s">
+        <v>225</v>
+      </c>
+      <c r="P37" t="s">
         <v>229</v>
       </c>
-      <c r="P37" t="s">
-        <v>65</v>
-      </c>
       <c r="Q37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B38" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" t="s">
+        <v>214</v>
+      </c>
+      <c r="G38" t="s">
         <v>220</v>
       </c>
-      <c r="C38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" t="s">
-        <v>150</v>
-      </c>
-      <c r="E38" t="s">
-        <v>160</v>
-      </c>
-      <c r="F38" t="s">
-        <v>218</v>
-      </c>
-      <c r="G38" t="s">
-        <v>224</v>
-      </c>
       <c r="H38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I38" t="s">
         <v>62</v>
@@ -5175,21 +5383,25 @@
         <v>82</v>
       </c>
       <c r="O38" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
       <c r="P38" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="Q38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C39" t="s">
         <v>72</v>
@@ -5198,16 +5410,16 @@
         <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G39" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H39" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="I39" t="s">
         <v>62</v>
@@ -5231,18 +5443,22 @@
         <v>1000</v>
       </c>
       <c r="P39" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="Q39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B40" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C40" t="s">
         <v>72</v>
@@ -5251,16 +5467,16 @@
         <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G40" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H40" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="I40" t="s">
         <v>62</v>
@@ -5281,17 +5497,21 @@
         <v>64</v>
       </c>
       <c r="O40">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="P40" t="s">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="Q40">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R40">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q40"/>
+  <autoFilter ref="A1:R40"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="O@"/>
     <hyperlink ref="B39" r:id="rId2" display="O@"/>

--- a/alerts/Alert Parameters (working).xlsx
+++ b/alerts/Alert Parameters (working).xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="233">
   <si>
     <t>Alert</t>
   </si>
@@ -472,9 +472,6 @@
     <t>occupancy_status</t>
   </si>
   <si>
-    <t>alert_type</t>
-  </si>
-  <si>
     <t>&lt;alias&gt; exceeds 1000 ppm.</t>
   </si>
   <si>
@@ -565,9 +562,6 @@
     <t>Dead_Power_sensor_alert_Watt</t>
   </si>
   <si>
-    <t>Dead_IAQ_sensor_alert_Watt</t>
-  </si>
-  <si>
     <t>Dead_Temp_sensor_alert_ASC</t>
   </si>
   <si>
@@ -583,39 +577,24 @@
     <t>CEVAC_ASC_POWER_LATEST</t>
   </si>
   <si>
-    <t>Dead_IAQ_sensor_alert_ASC</t>
-  </si>
-  <si>
-    <t>CEVAC_ASC_IAQ_LATEST</t>
-  </si>
-  <si>
     <t>Dead_Temp_sensor_alert_Cooper</t>
   </si>
   <si>
     <t>Dead_Power_sensor_alert_Cooper</t>
   </si>
   <si>
-    <t>Dead_IAQ_sensor_alert_Cooper</t>
-  </si>
-  <si>
     <t>CEVAC_COOPER_TEMP_LATEST</t>
   </si>
   <si>
     <t>CEVAC_COOPER_POWER_LATEST</t>
   </si>
   <si>
-    <t>CEVAC_COOPER_IAQ_LATEST</t>
-  </si>
-  <si>
     <t>Dead_Temp_sensor_alert_Lee3</t>
   </si>
   <si>
     <t>Dead_Power_sensor_alert_Lee3</t>
   </si>
   <si>
-    <t>Dead_IAQ_sensor_alert_Lee3</t>
-  </si>
-  <si>
     <t>Temp_High_warning_ASC</t>
   </si>
   <si>
@@ -664,9 +643,6 @@
     <t>CO2_alert_ASC</t>
   </si>
   <si>
-    <t>IAQ</t>
-  </si>
-  <si>
     <t>metric</t>
   </si>
   <si>
@@ -679,9 +655,6 @@
     <t>CEVAC_LEE_III_POWER_LATEST</t>
   </si>
   <si>
-    <t>CEVAC_LEE_III_IAQ_LATEST</t>
-  </si>
-  <si>
     <t>CEVAC_LEE_III_TEMP_DAY</t>
   </si>
   <si>
@@ -722,6 +695,39 @@
   </si>
   <si>
     <t>&lt;Heating SP ActualValue&gt;-3</t>
+  </si>
+  <si>
+    <t>CEVAC_WATT_CO2_LATEST</t>
+  </si>
+  <si>
+    <t>Dead_CO2_sensor_alert_Watt</t>
+  </si>
+  <si>
+    <t>Dead_CO2_sensor_alert_ASC</t>
+  </si>
+  <si>
+    <t>CEVAC_ASC_CO2_LATEST</t>
+  </si>
+  <si>
+    <t>Dead_CO2_sensor_alert_Cooper</t>
+  </si>
+  <si>
+    <t>CEVAC_COOPER_CO2_LATEST</t>
+  </si>
+  <si>
+    <t>Dead_CO2_sensor_alert_Lee3</t>
+  </si>
+  <si>
+    <t>CEVAC_LEE_III_CO2_LATEST</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Alias-PSID</t>
+  </si>
+  <si>
+    <t>Building Emergency (-1)</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1479,7 @@
         <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
@@ -1529,7 +1535,7 @@
         <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G3" t="s">
         <v>61</v>
@@ -1585,7 +1591,7 @@
         <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G4" t="s">
         <v>71</v>
@@ -1641,7 +1647,7 @@
         <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
         <v>71</v>
@@ -1697,7 +1703,7 @@
         <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G6" t="s">
         <v>71</v>
@@ -1753,7 +1759,7 @@
         <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G7" t="s">
         <v>71</v>
@@ -1809,7 +1815,7 @@
         <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G8" t="s">
         <v>71</v>
@@ -1865,7 +1871,7 @@
         <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G9" t="s">
         <v>71</v>
@@ -1921,7 +1927,7 @@
         <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G10" t="s">
         <v>71</v>
@@ -1977,7 +1983,7 @@
         <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G11" t="s">
         <v>71</v>
@@ -2033,7 +2039,7 @@
         <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G12" t="s">
         <v>71</v>
@@ -2089,7 +2095,7 @@
         <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
         <v>71</v>
@@ -2145,7 +2151,7 @@
         <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
         <v>71</v>
@@ -2201,7 +2207,7 @@
         <v>115</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
         <v>71</v>
@@ -2257,7 +2263,7 @@
         <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
         <v>71</v>
@@ -2313,7 +2319,7 @@
         <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
         <v>71</v>
@@ -2369,7 +2375,7 @@
         <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
         <v>71</v>
@@ -2425,7 +2431,7 @@
         <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
         <v>71</v>
@@ -2481,7 +2487,7 @@
         <v>119</v>
       </c>
       <c r="F20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G20" t="s">
         <v>71</v>
@@ -2537,7 +2543,7 @@
         <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G21" t="s">
         <v>71</v>
@@ -2593,7 +2599,7 @@
         <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G22" t="s">
         <v>91</v>
@@ -2649,7 +2655,7 @@
         <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G23" t="s">
         <v>91</v>
@@ -2705,7 +2711,7 @@
         <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G24" t="s">
         <v>91</v>
@@ -2761,7 +2767,7 @@
         <v>138</v>
       </c>
       <c r="F25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G25" t="s">
         <v>78</v>
@@ -2817,7 +2823,7 @@
         <v>140</v>
       </c>
       <c r="F26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G26" t="s">
         <v>78</v>
@@ -2873,7 +2879,7 @@
         <v>137</v>
       </c>
       <c r="F27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G27" t="s">
         <v>78</v>
@@ -2929,7 +2935,7 @@
         <v>139</v>
       </c>
       <c r="F28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G28" t="s">
         <v>78</v>
@@ -2962,7 +2968,7 @@
         <v>82</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R28" s="7" t="s">
         <v>66</v>
@@ -2985,7 +2991,7 @@
         <v>129</v>
       </c>
       <c r="F29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G29" t="s">
         <v>132</v>
@@ -3041,7 +3047,7 @@
         <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G30" t="s">
         <v>71</v>
@@ -3097,7 +3103,7 @@
         <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
@@ -3144,10 +3150,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3170,12 +3176,12 @@
     <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C1" t="s">
         <v>125</v>
@@ -3187,10 +3193,10 @@
         <v>145</v>
       </c>
       <c r="F1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="H1" t="s">
         <v>49</v>
@@ -3217,18 +3223,21 @@
         <v>57</v>
       </c>
       <c r="P1" t="s">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="Q1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="R1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -3237,16 +3246,16 @@
         <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" t="s">
         <v>222</v>
-      </c>
-      <c r="H2" t="s">
-        <v>61</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
@@ -3269,19 +3278,22 @@
       <c r="O2">
         <v>1000</v>
       </c>
-      <c r="P2" t="s">
-        <v>65</v>
+      <c r="P2">
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
@@ -3290,16 +3302,16 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" t="s">
         <v>222</v>
-      </c>
-      <c r="H3" t="s">
-        <v>61</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -3322,19 +3334,22 @@
       <c r="O3">
         <v>2000</v>
       </c>
-      <c r="P3" t="s">
-        <v>66</v>
+      <c r="P3">
+        <v>2</v>
       </c>
       <c r="Q3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
         <v>101</v>
@@ -3346,10 +3361,10 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H4" t="s">
         <v>71</v>
@@ -3375,19 +3390,22 @@
       <c r="O4">
         <v>1.3</v>
       </c>
-      <c r="P4" t="s">
-        <v>66</v>
+      <c r="P4">
+        <v>2</v>
       </c>
       <c r="Q4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C5" t="s">
         <v>105</v>
@@ -3399,10 +3417,10 @@
         <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H5" t="s">
         <v>71</v>
@@ -3428,19 +3446,22 @@
       <c r="O5">
         <v>1.1499999999999999</v>
       </c>
-      <c r="P5" t="s">
-        <v>66</v>
+      <c r="P5">
+        <v>2</v>
       </c>
       <c r="Q5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
         <v>110</v>
@@ -3452,10 +3473,10 @@
         <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G6" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H6" t="s">
         <v>71</v>
@@ -3481,19 +3502,22 @@
       <c r="O6">
         <v>1.35</v>
       </c>
-      <c r="P6" t="s">
-        <v>66</v>
+      <c r="P6">
+        <v>2</v>
       </c>
       <c r="Q6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
         <v>114</v>
@@ -3505,10 +3529,10 @@
         <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H7" t="s">
         <v>71</v>
@@ -3534,19 +3558,22 @@
       <c r="O7">
         <v>1</v>
       </c>
-      <c r="P7" t="s">
-        <v>66</v>
+      <c r="P7">
+        <v>2</v>
       </c>
       <c r="Q7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
@@ -3555,13 +3582,13 @@
         <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G8" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H8" t="s">
         <v>71</v>
@@ -3587,34 +3614,37 @@
       <c r="O8">
         <v>1</v>
       </c>
-      <c r="P8" t="s">
-        <v>66</v>
+      <c r="P8">
+        <v>2</v>
       </c>
       <c r="Q8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
         <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G9" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H9" t="s">
         <v>78</v>
@@ -3638,36 +3668,39 @@
         <v>64</v>
       </c>
       <c r="O9" t="s">
-        <v>151</v>
-      </c>
-      <c r="P9" t="s">
-        <v>65</v>
+        <v>150</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C10" t="s">
         <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G10" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H10" t="s">
         <v>97</v>
@@ -3691,36 +3724,39 @@
         <v>64</v>
       </c>
       <c r="O10" t="s">
-        <v>152</v>
-      </c>
-      <c r="P10" t="s">
-        <v>66</v>
+        <v>151</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
       </c>
       <c r="Q10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
         <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G11" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H11" t="s">
         <v>78</v>
@@ -3744,36 +3780,39 @@
         <v>82</v>
       </c>
       <c r="O11" t="s">
-        <v>153</v>
-      </c>
-      <c r="P11" t="s">
-        <v>65</v>
+        <v>152</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
       </c>
       <c r="Q11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C12" t="s">
         <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G12" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H12" t="s">
         <v>97</v>
@@ -3797,21 +3836,24 @@
         <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>154</v>
-      </c>
-      <c r="P12" t="s">
-        <v>66</v>
+        <v>153</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
       </c>
       <c r="Q12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
         <v>73</v>
@@ -3820,13 +3862,13 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" t="s">
         <v>156</v>
       </c>
-      <c r="F13" t="s">
-        <v>157</v>
-      </c>
       <c r="G13" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H13" t="s">
         <v>71</v>
@@ -3852,19 +3894,22 @@
       <c r="O13">
         <v>80</v>
       </c>
-      <c r="P13" t="s">
-        <v>66</v>
+      <c r="P13">
+        <v>2</v>
       </c>
       <c r="Q13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
         <v>72</v>
@@ -3873,13 +3918,13 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H14" t="s">
         <v>91</v>
@@ -3905,34 +3950,37 @@
       <c r="O14">
         <v>300</v>
       </c>
-      <c r="P14" t="s">
-        <v>66</v>
+      <c r="P14">
+        <v>2</v>
       </c>
       <c r="Q14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C15" t="s">
         <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H15" t="s">
         <v>97</v>
@@ -3958,19 +4006,22 @@
       <c r="O15" t="s">
         <v>94</v>
       </c>
-      <c r="P15" t="s">
-        <v>66</v>
+      <c r="P15">
+        <v>2</v>
       </c>
       <c r="Q15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
         <v>72</v>
@@ -3979,13 +4030,13 @@
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H16" t="s">
         <v>71</v>
@@ -4011,19 +4062,22 @@
       <c r="O16" t="s">
         <v>94</v>
       </c>
-      <c r="P16" t="s">
-        <v>66</v>
+      <c r="P16">
+        <v>2</v>
       </c>
       <c r="Q16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>72</v>
@@ -4032,16 +4086,16 @@
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
+        <v>213</v>
+      </c>
+      <c r="H17" t="s">
         <v>222</v>
-      </c>
-      <c r="H17" t="s">
-        <v>61</v>
       </c>
       <c r="I17" t="s">
         <v>63</v>
@@ -4064,37 +4118,40 @@
       <c r="O17" t="s">
         <v>94</v>
       </c>
-      <c r="P17" t="s">
-        <v>66</v>
+      <c r="P17">
+        <v>2</v>
       </c>
       <c r="Q17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>214</v>
+      </c>
+      <c r="H18" t="s">
         <v>179</v>
-      </c>
-      <c r="B18" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" t="s">
-        <v>221</v>
-      </c>
-      <c r="F18" t="s">
-        <v>180</v>
-      </c>
-      <c r="G18" t="s">
-        <v>223</v>
-      </c>
-      <c r="H18" t="s">
-        <v>181</v>
       </c>
       <c r="I18" t="s">
         <v>63</v>
@@ -4117,19 +4174,22 @@
       <c r="O18" t="s">
         <v>94</v>
       </c>
-      <c r="P18" t="s">
-        <v>66</v>
+      <c r="P18">
+        <v>2</v>
       </c>
       <c r="Q18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C19" t="s">
         <v>72</v>
@@ -4138,16 +4198,16 @@
         <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I19" t="s">
         <v>63</v>
@@ -4170,19 +4230,22 @@
       <c r="O19" t="s">
         <v>94</v>
       </c>
-      <c r="P19" t="s">
-        <v>66</v>
+      <c r="P19">
+        <v>2</v>
       </c>
       <c r="Q19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>72</v>
@@ -4191,16 +4254,16 @@
         <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H20" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="I20" t="s">
         <v>63</v>
@@ -4223,37 +4286,40 @@
       <c r="O20" t="s">
         <v>94</v>
       </c>
-      <c r="P20" t="s">
-        <v>66</v>
+      <c r="P20">
+        <v>2</v>
       </c>
       <c r="Q20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C21" t="s">
         <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E21" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F21" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I21" t="s">
         <v>63</v>
@@ -4276,19 +4342,22 @@
       <c r="O21" t="s">
         <v>94</v>
       </c>
-      <c r="P21" t="s">
-        <v>66</v>
+      <c r="P21">
+        <v>2</v>
       </c>
       <c r="Q21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C22" t="s">
         <v>72</v>
@@ -4297,16 +4366,16 @@
         <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F22" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G22" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H22" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I22" t="s">
         <v>63</v>
@@ -4329,19 +4398,22 @@
       <c r="O22" t="s">
         <v>94</v>
       </c>
-      <c r="P22" t="s">
-        <v>66</v>
+      <c r="P22">
+        <v>2</v>
       </c>
       <c r="Q22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
         <v>72</v>
@@ -4350,16 +4422,16 @@
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F23" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G23" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H23" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="I23" t="s">
         <v>63</v>
@@ -4382,37 +4454,40 @@
       <c r="O23" t="s">
         <v>94</v>
       </c>
-      <c r="P23" t="s">
-        <v>66</v>
+      <c r="P23">
+        <v>2</v>
       </c>
       <c r="Q23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B24" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C24" t="s">
         <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E24" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G24" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H24" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I24" t="s">
         <v>63</v>
@@ -4435,19 +4510,22 @@
       <c r="O24" t="s">
         <v>94</v>
       </c>
-      <c r="P24" t="s">
-        <v>66</v>
+      <c r="P24">
+        <v>2</v>
       </c>
       <c r="Q24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C25" t="s">
         <v>72</v>
@@ -4456,16 +4534,16 @@
         <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G25" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H25" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="I25" t="s">
         <v>63</v>
@@ -4488,19 +4566,22 @@
       <c r="O25" t="s">
         <v>94</v>
       </c>
-      <c r="P25" t="s">
-        <v>66</v>
+      <c r="P25">
+        <v>2</v>
       </c>
       <c r="Q25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
         <v>72</v>
@@ -4509,16 +4590,16 @@
         <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F26" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G26" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H26" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="I26" t="s">
         <v>63</v>
@@ -4541,37 +4622,40 @@
       <c r="O26" t="s">
         <v>94</v>
       </c>
-      <c r="P26" t="s">
-        <v>66</v>
+      <c r="P26">
+        <v>2</v>
       </c>
       <c r="Q26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B27" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G27" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H27" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I27" t="s">
         <v>62</v>
@@ -4592,39 +4676,42 @@
         <v>64</v>
       </c>
       <c r="O27" t="s">
-        <v>228</v>
-      </c>
-      <c r="P27" t="s">
-        <v>65</v>
+        <v>219</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
       </c>
       <c r="Q27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B28" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C28" t="s">
         <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G28" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I28" t="s">
         <v>62</v>
@@ -4645,39 +4732,42 @@
         <v>64</v>
       </c>
       <c r="O28" t="s">
-        <v>152</v>
-      </c>
-      <c r="P28" t="s">
-        <v>66</v>
+        <v>151</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
       </c>
       <c r="Q28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B29" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C29" t="s">
         <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G29" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H29" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I29" t="s">
         <v>62</v>
@@ -4698,39 +4788,42 @@
         <v>82</v>
       </c>
       <c r="O29" t="s">
-        <v>229</v>
-      </c>
-      <c r="P29" t="s">
-        <v>65</v>
+        <v>220</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
       </c>
       <c r="Q29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B30" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C30" t="s">
         <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G30" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I30" t="s">
         <v>62</v>
@@ -4751,39 +4844,42 @@
         <v>82</v>
       </c>
       <c r="O30" t="s">
-        <v>154</v>
-      </c>
-      <c r="P30" t="s">
-        <v>66</v>
+        <v>153</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
       </c>
       <c r="Q30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B31" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C31" t="s">
         <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F31" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G31" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H31" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="I31" t="s">
         <v>62</v>
@@ -4804,39 +4900,42 @@
         <v>64</v>
       </c>
       <c r="O31" t="s">
-        <v>228</v>
-      </c>
-      <c r="P31" t="s">
-        <v>65</v>
+        <v>219</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
       </c>
       <c r="Q31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C32" t="s">
         <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F32" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G32" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H32" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I32" t="s">
         <v>62</v>
@@ -4857,39 +4956,42 @@
         <v>64</v>
       </c>
       <c r="O32" t="s">
-        <v>152</v>
-      </c>
-      <c r="P32" t="s">
-        <v>66</v>
+        <v>151</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
       </c>
       <c r="Q32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B33" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C33" t="s">
         <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F33" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G33" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H33" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="I33" t="s">
         <v>62</v>
@@ -4910,39 +5012,42 @@
         <v>82</v>
       </c>
       <c r="O33" t="s">
-        <v>229</v>
-      </c>
-      <c r="P33" t="s">
-        <v>65</v>
+        <v>220</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
       </c>
       <c r="Q33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C34" t="s">
         <v>72</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F34" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G34" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H34" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I34" t="s">
         <v>62</v>
@@ -4963,39 +5068,42 @@
         <v>82</v>
       </c>
       <c r="O34" t="s">
-        <v>230</v>
-      </c>
-      <c r="P34" t="s">
-        <v>66</v>
+        <v>221</v>
+      </c>
+      <c r="P34">
+        <v>2</v>
       </c>
       <c r="Q34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B35" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C35" t="s">
         <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F35" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G35" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H35" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I35" t="s">
         <v>62</v>
@@ -5016,39 +5124,42 @@
         <v>64</v>
       </c>
       <c r="O35" t="s">
-        <v>228</v>
-      </c>
-      <c r="P35" t="s">
-        <v>65</v>
+        <v>219</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
       </c>
       <c r="Q35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B36" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C36" t="s">
         <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F36" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G36" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H36" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I36" t="s">
         <v>62</v>
@@ -5069,39 +5180,42 @@
         <v>64</v>
       </c>
       <c r="O36" t="s">
-        <v>152</v>
-      </c>
-      <c r="P36" t="s">
-        <v>66</v>
+        <v>151</v>
+      </c>
+      <c r="P36">
+        <v>2</v>
       </c>
       <c r="Q36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C37" t="s">
         <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F37" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G37" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H37" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I37" t="s">
         <v>62</v>
@@ -5122,39 +5236,42 @@
         <v>82</v>
       </c>
       <c r="O37" t="s">
-        <v>229</v>
-      </c>
-      <c r="P37" t="s">
-        <v>65</v>
+        <v>220</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
       </c>
       <c r="Q37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C38" t="s">
         <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F38" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G38" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H38" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I38" t="s">
         <v>62</v>
@@ -5175,21 +5292,24 @@
         <v>82</v>
       </c>
       <c r="O38" t="s">
-        <v>154</v>
-      </c>
-      <c r="P38" t="s">
-        <v>66</v>
+        <v>153</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
       </c>
       <c r="Q38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
         <v>72</v>
@@ -5198,16 +5318,16 @@
         <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G39" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H39" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="I39" t="s">
         <v>62</v>
@@ -5230,19 +5350,22 @@
       <c r="O39">
         <v>1000</v>
       </c>
-      <c r="P39" t="s">
-        <v>65</v>
+      <c r="P39">
+        <v>1</v>
       </c>
       <c r="Q39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B40" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
         <v>72</v>
@@ -5251,16 +5374,16 @@
         <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G40" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H40" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="I40" t="s">
         <v>62</v>
@@ -5283,11 +5406,14 @@
       <c r="O40">
         <v>2000</v>
       </c>
-      <c r="P40" t="s">
-        <v>66</v>
+      <c r="P40">
+        <v>2</v>
       </c>
       <c r="Q40">
         <v>39</v>
+      </c>
+      <c r="R40" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
